--- a/lab3.xlsx
+++ b/lab3.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23524"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TempUserProfiles\NetworkService\AppData\OICE_16_974FA576_32C1D314_3507\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4044BE68-FF82-449A-A4AF-E45C80E52481}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15600" windowHeight="8190" tabRatio="279" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11760" tabRatio="279" firstSheet="2" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Формулы" sheetId="1" r:id="rId1"/>
@@ -14,13 +20,27 @@
   <definedNames>
     <definedName name="BMusing_calculation_operators_in_formul" localSheetId="0">Формулы!$A$20</definedName>
   </definedNames>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="191028" calcCompleted="0"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="180">
   <si>
+    <t>Формулы — это уравнения, с помощью которых можно выполнять вычисления, возвращать данные, манипулировать содержимым других ячеек, проверять условия и т. д.</t>
+  </si>
+  <si>
     <t>Формула должна начинаться со знака равенства и может включать в себя числа, имена ячеек, функции и знаки математических операций. Однако в формулу не может входить текст. Например, формула =А1+В1 обеспечивает сложение чисел, хранящихся в ячейках А1 и В1, а формула =А1*5 - умножение числа, хранящегося в ячейке А1, на 5. При изменении исходных значений, входящих в формулу, результат пересчитывается немедленно.</t>
   </si>
   <si>
@@ -30,12 +50,114 @@
     <t>После окончания ввода, которое обеспечивается нажатием клавиши Enter, в ячейке отображается не сама формула, а результат вычислений по этой формуле.</t>
   </si>
   <si>
+    <t>Формула также может содержать функции, ссылки, операторы и константы.</t>
+  </si>
+  <si>
+    <t>Здесь 1 - функция.  Функция ПИ() возвращает значение числа Пи: 3,142...
+Выноска 2 Ссылки. A2 возвращает значение ячейки A2.
+Выноска 3 Константы. Числа или текстовые значения, введенные непосредственно в формулу, например 2.
+Выноска 4 Операторы: оператор ^ ("крышка") возводит число в степень, а оператор * ("звездочка") перемножает числа.</t>
+  </si>
+  <si>
+    <t>Использование констант в формулах</t>
+  </si>
+  <si>
+    <t>Константа представляет собой готовое (не вычисляемое) значение, которое всегда остается неизменным. Например, дата 09.10.2008, число 210 и текст "Прибыль за квартал" являются константами. выражение или его значение константами не являются. Если формула в ячейке содержит константы, но не ссылки на другие ячейки (например, имеет вид =30+70+110), значение в такой ячейке изменяется только после изменения формулы.</t>
+  </si>
+  <si>
+    <t>Использование операторов в формулах</t>
+  </si>
+  <si>
+    <t>Операторы определяют операции, которые необходимо выполнить над элементами формулы. Вычисления выполняются в стандартном порядке (соответствующем основным правилам арифметики), однако его можно изменить с помощью скобок.</t>
+  </si>
+  <si>
+    <t>Типы операторов</t>
+  </si>
+  <si>
+    <t>Приложение Microsoft Excel поддерживает четыре типа операторов: арифметические, текстовые, операторы сравнения и операторы ссылок.</t>
+  </si>
+  <si>
+    <t>Арифметические операторы</t>
+  </si>
+  <si>
+    <t>Арифметические операторы служат для выполнения базовых арифметических операций, таких как сложение, вычитание, умножение, деление или объединение чисел. Результатом операций являются числа. Арифметические операторы приведены ниже.</t>
+  </si>
+  <si>
+    <t>Арифметический оператор</t>
+  </si>
+  <si>
+    <t>Значение</t>
+  </si>
+  <si>
+    <t>Пример</t>
+  </si>
+  <si>
+    <t>+ (знак "плюс")</t>
+  </si>
+  <si>
+    <t>Сложение</t>
+  </si>
+  <si>
+    <t>3+3</t>
+  </si>
+  <si>
+    <t>– (знак "минус")</t>
+  </si>
+  <si>
+    <t>Вычитание</t>
+  </si>
+  <si>
+    <t>3–1</t>
+  </si>
+  <si>
+    <t>Отрицание</t>
+  </si>
+  <si>
+    <t>–1</t>
+  </si>
+  <si>
+    <t>* (звездочка)</t>
+  </si>
+  <si>
+    <t>Умножение</t>
+  </si>
+  <si>
+    <t>3*3</t>
+  </si>
+  <si>
+    <t>/ (косая черта)</t>
+  </si>
+  <si>
+    <t>Деление</t>
+  </si>
+  <si>
+    <t>3/3</t>
+  </si>
+  <si>
+    <t>% (знак процента)</t>
+  </si>
+  <si>
+    <t>Процент</t>
+  </si>
+  <si>
+    <t>^ (крышка)</t>
+  </si>
+  <si>
+    <t>Возведение в степень</t>
+  </si>
+  <si>
+    <t>3^2</t>
+  </si>
+  <si>
     <t>1. Оформите фрагмент для расчета площади квадрата по известной длине его стороны:</t>
   </si>
   <si>
     <t xml:space="preserve">Введите длину стороны (в см) </t>
   </si>
   <si>
+    <t>см</t>
+  </si>
+  <si>
     <t>площадь квадрата равна:</t>
   </si>
   <si>
@@ -84,6 +206,11 @@
     <t>Количество информации в мегабайтах:</t>
   </si>
   <si>
+    <t>5.  На заводе «Прогресс» каждому сотруднику зарплату за месяц выдают дважды: сначала часть оклада в виде аванса,  
+а по истечении месяца — остальную часть оклада. При этом при окончательном расчете удерживают также  подоходный 
+налог и профсоюзный взнос. По известному окладу сотрудника Бендера О.И.  Произвести расчет в виде выплат в виде:</t>
+  </si>
+  <si>
     <t>Оклад</t>
   </si>
   <si>
@@ -100,6 +227,9 @@
   </si>
   <si>
     <t>Сумма к выдаче</t>
+  </si>
+  <si>
+    <t>МРОТ</t>
   </si>
   <si>
     <t>1) В колонке «Сумма у выдаче» должна быть указана сумма денег, получаемых сотрудником в конце месяца.
@@ -168,15 +298,22 @@
     <t>девочек</t>
   </si>
   <si>
-    <t>5.  На заводе «Прогресс» каждому сотруднику зарплату за месяц выдают дважды: сначала часть оклада в виде аванса,  
-а по истечении месяца — остальную часть оклада. При этом при окончательном расчете удерживают также  подоходный 
-налог и профсоюзный взнос. По известному окладу сотрудника Бендера О.И.  Произвести расчет в виде выплат в виде:</t>
-  </si>
-  <si>
     <t>8. Гражданин открыл счет в банке, вложив 1000 грн. Через каждый месяц размер вклада увеличивается на 1,2% от имеющейся 
     cуммы.  Построить таблицу для определения суммы вклада через 1, 2, …, 12 мес. Кроме того, рассчитайте прирост суммы вклада за каждый месяц года.</t>
   </si>
   <si>
+    <t>Месяц вложено</t>
+  </si>
+  <si>
+    <t>Функции в электронных таблицах</t>
+  </si>
+  <si>
+    <t>Функции математические</t>
+  </si>
+  <si>
+    <t>1.</t>
+  </si>
+  <si>
     <t>Введите двузначное число</t>
   </si>
   <si>
@@ -192,9 +329,6 @@
     <t>Произведение его цифр:</t>
   </si>
   <si>
-    <t>1.</t>
-  </si>
-  <si>
     <t xml:space="preserve">2. Дано двузначное число. Получить число, образованное при перестановке цифр заданного числа </t>
   </si>
   <si>
@@ -210,9 +344,6 @@
     <t>Полученное число:</t>
   </si>
   <si>
-    <t>Функции в электронных таблицах</t>
-  </si>
-  <si>
     <t>4. Дано трехзначное число. В нем зачеркнули последнюю справа цифру и приписали её в начале. Найти полученное число.</t>
   </si>
   <si>
@@ -222,9 +353,6 @@
     <t>Введите число</t>
   </si>
   <si>
-    <t>Функции математические</t>
-  </si>
-  <si>
     <t>Функции для работы с датой и временем</t>
   </si>
   <si>
@@ -234,10 +362,16 @@
     <t>Введите число секунд n</t>
   </si>
   <si>
+    <t>Количество полных часов, прошедших с начала суток:</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> n разделить на 3600 и округлить до ближайшего меньшего целого </t>
+  </si>
+  <si>
     <t>Количество секунд, прошедших с начала очередного часа:</t>
   </si>
   <si>
-    <t>Количество полных часов, прошедших с начала суток:</t>
+    <t>взять остаток от деления n на 3600</t>
   </si>
   <si>
     <t>Количество полных минут, прошедших с начала очередного часа</t>
@@ -249,169 +383,40 @@
     <t>Количество полных секунд, прошедших с начала очередной минуты</t>
   </si>
   <si>
-    <t>Формулы — это уравнения, с помощью которых можно выполнять вычисления, возвращать данные, манипулировать содержимым других ячеек, проверять условия и т. д.</t>
-  </si>
-  <si>
-    <t>Формула также может содержать функции, ссылки, операторы и константы.</t>
-  </si>
-  <si>
-    <t>Здесь 1 - функция.  Функция ПИ() возвращает значение числа Пи: 3,142...
-Выноска 2 Ссылки. A2 возвращает значение ячейки A2.
-Выноска 3 Константы. Числа или текстовые значения, введенные непосредственно в формулу, например 2.
-Выноска 4 Операторы: оператор ^ ("крышка") возводит число в степень, а оператор * ("звездочка") перемножает числа.</t>
-  </si>
-  <si>
-    <t>Использование констант в формулах</t>
-  </si>
-  <si>
-    <t>Константа представляет собой готовое (не вычисляемое) значение, которое всегда остается неизменным. Например, дата 09.10.2008, число 210 и текст "Прибыль за квартал" являются константами. выражение или его значение константами не являются. Если формула в ячейке содержит константы, но не ссылки на другие ячейки (например, имеет вид =30+70+110), значение в такой ячейке изменяется только после изменения формулы.</t>
-  </si>
-  <si>
-    <t>Использование операторов в формулах</t>
-  </si>
-  <si>
-    <t>Операторы определяют операции, которые необходимо выполнить над элементами формулы. Вычисления выполняются в стандартном порядке (соответствующем основным правилам арифметики), однако его можно изменить с помощью скобок.</t>
-  </si>
-  <si>
-    <t>Типы операторов</t>
-  </si>
-  <si>
-    <t>Приложение Microsoft Excel поддерживает четыре типа операторов: арифметические, текстовые, операторы сравнения и операторы ссылок.</t>
-  </si>
-  <si>
-    <t>Арифметические операторы</t>
-  </si>
-  <si>
-    <t>Арифметические операторы служат для выполнения базовых арифметических операций, таких как сложение, вычитание, умножение, деление или объединение чисел. Результатом операций являются числа. Арифметические операторы приведены ниже.</t>
-  </si>
-  <si>
-    <t>Арифметический оператор</t>
-  </si>
-  <si>
-    <t>Значение</t>
-  </si>
-  <si>
-    <t>Пример</t>
-  </si>
-  <si>
-    <t>+ (знак "плюс")</t>
-  </si>
-  <si>
-    <t>Сложение</t>
-  </si>
-  <si>
-    <t>3+3</t>
-  </si>
-  <si>
-    <t>– (знак "минус")</t>
-  </si>
-  <si>
-    <t>Вычитание</t>
-  </si>
-  <si>
-    <t>Отрицание</t>
-  </si>
-  <si>
-    <t>3–1</t>
-  </si>
-  <si>
-    <t>–1</t>
-  </si>
-  <si>
-    <t>* (звездочка)</t>
-  </si>
-  <si>
-    <t>Умножение</t>
-  </si>
-  <si>
-    <t>3*3</t>
-  </si>
-  <si>
-    <t>/ (косая черта)</t>
-  </si>
-  <si>
-    <t>Деление</t>
-  </si>
-  <si>
-    <t>% (знак процента)</t>
-  </si>
-  <si>
-    <t>Процент</t>
-  </si>
-  <si>
-    <t>^ (крышка)</t>
-  </si>
-  <si>
-    <t>Возведение в степень</t>
-  </si>
-  <si>
-    <t>3^2</t>
-  </si>
-  <si>
-    <t>3/3</t>
-  </si>
-  <si>
-    <t>взять остаток от деления n на 3600</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> n разделить на 3600 и округлить до ближайшего меньшего целого </t>
-  </si>
-  <si>
     <t>Задачи на обработку текста</t>
   </si>
   <si>
     <t>Фамилия сотрудника</t>
   </si>
   <si>
+    <t>Дудник</t>
+  </si>
+  <si>
     <t>Имя сотрудника</t>
   </si>
   <si>
+    <t>Андрей</t>
+  </si>
+  <si>
     <t>Отчество сотрудника</t>
   </si>
   <si>
+    <t>Романович</t>
+  </si>
+  <si>
     <t>Фамилия, имя, отчество сотрудника</t>
   </si>
   <si>
-    <t>2.</t>
-  </si>
-  <si>
-    <t>Фамилия и инициалы сотрудника:</t>
+    <t>2. В результатирующей ячейке получить число символов  в исходной строке текста</t>
   </si>
   <si>
     <t>Введите строку</t>
   </si>
   <si>
+    <t>История</t>
+  </si>
+  <si>
     <t>Число символов в строке</t>
-  </si>
-  <si>
-    <t>Исходное слово</t>
-  </si>
-  <si>
-    <t>Полученное слово</t>
-  </si>
-  <si>
-    <t>Информатика</t>
-  </si>
-  <si>
-    <t>Первое слово</t>
-  </si>
-  <si>
-    <t>Второе слово</t>
-  </si>
-  <si>
-    <t>Информатор</t>
-  </si>
-  <si>
-    <t>Операция</t>
-  </si>
-  <si>
-    <t>Первое полученное слово</t>
-  </si>
-  <si>
-    <t>Второе полученное слово</t>
-  </si>
-  <si>
-    <t>2. В результатирующей ячейке получить число символов  в исходной строке текста</t>
   </si>
   <si>
     <r>
@@ -426,6 +431,15 @@
       </rPr>
       <t>форма</t>
     </r>
+  </si>
+  <si>
+    <t>Исходное слово</t>
+  </si>
+  <si>
+    <t>Информатика</t>
+  </si>
+  <si>
+    <t>Полученное слово</t>
   </si>
   <si>
     <r>
@@ -474,9 +488,30 @@
     </r>
   </si>
   <si>
+    <t>Первое слово</t>
+  </si>
+  <si>
+    <t>Информатор</t>
+  </si>
+  <si>
+    <t>Второе слово</t>
+  </si>
+  <si>
+    <t>Операция</t>
+  </si>
+  <si>
+    <t>Первое полученное слово</t>
+  </si>
+  <si>
+    <t>Второе полученное слово</t>
+  </si>
+  <si>
     <t>6. Получить текст, состоящий из фамилии и инициалов в виде Иванов Н.И.</t>
   </si>
   <si>
+    <t>Фамилия и инициалы сотрудника:</t>
+  </si>
+  <si>
     <t>Задачи с данными типа дата</t>
   </si>
   <si>
@@ -492,6 +527,9 @@
     <t>Год в этой дате</t>
   </si>
   <si>
+    <t>2.</t>
+  </si>
+  <si>
     <t>Дата через 100 дней после указанной</t>
   </si>
   <si>
@@ -504,6 +542,9 @@
     <t>Введите дату рождения</t>
   </si>
   <si>
+    <t>11.28.2020</t>
+  </si>
+  <si>
     <t>Определите свой возраст в днях</t>
   </si>
   <si>
@@ -598,36 +639,12 @@
   </si>
   <si>
     <t>Итого за год:</t>
-  </si>
-  <si>
-    <t>см</t>
-  </si>
-  <si>
-    <t>МРОТ</t>
-  </si>
-  <si>
-    <t>Месяц вложено</t>
-  </si>
-  <si>
-    <t>Дудник</t>
-  </si>
-  <si>
-    <t>Андрей</t>
-  </si>
-  <si>
-    <t>Романович</t>
-  </si>
-  <si>
-    <t>История</t>
-  </si>
-  <si>
-    <t>11.28.2020</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="10">
     <font>
       <sz val="10"/>
@@ -828,9 +845,6 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -870,9 +884,6 @@
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
@@ -908,20 +919,23 @@
       <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -940,52 +954,55 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1061,6 +1078,14 @@
       <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1081,13 +1106,25 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="1100" name="Рисунок 2" descr="&amp;CHcy;&amp;acy;&amp;scy;&amp;tcy;&amp;icy; &amp;fcy;&amp;ocy;&amp;rcy;&amp;mcy;&amp;ucy;&amp;lcy;&amp;ycy;"/>
+        <xdr:cNvPr id="1100" name="Рисунок 2" descr="&amp;CHcy;&amp;acy;&amp;scy;&amp;tcy;&amp;icy; &amp;fcy;&amp;ocy;&amp;rcy;&amp;mcy;&amp;ucy;&amp;lcy;&amp;ycy;">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9B691DE2-C12F-450A-8FAD-49143DD0CCFA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
         <a:srcRect/>
         <a:stretch>
           <a:fillRect/>
@@ -1102,12 +1139,28 @@
           <a:avLst/>
         </a:prstGeom>
         <a:noFill/>
-        <a:ln w="9525">
+        <a:ln>
           <a:noFill/>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
         </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -1129,13 +1182,24 @@
       <xdr:nvPicPr>
         <xdr:cNvPr id="1101" name="Рисунок 3" descr="К началу страницы">
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{09DD9087-FFA8-4D58-88C6-C8A35716C0D7}"/>
+            </a:ext>
+          </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
         <a:srcRect/>
         <a:stretch>
           <a:fillRect/>
@@ -1150,12 +1214,28 @@
           <a:avLst/>
         </a:prstGeom>
         <a:noFill/>
-        <a:ln w="9525">
+        <a:ln>
           <a:noFill/>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
         </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -1164,9 +1244,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Стандартная">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1204,9 +1284,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Стандартная">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1238,9 +1318,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1272,9 +1370,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Стандартная">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1447,7 +1563,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <tabColor theme="2"/>
   </sheetPr>
@@ -1466,7 +1582,7 @@
   <sheetData>
     <row r="2" spans="1:10" ht="29.25" customHeight="1">
       <c r="A2" s="37" t="s">
-        <v>73</v>
+        <v>0</v>
       </c>
       <c r="B2" s="37"/>
       <c r="C2" s="37"/>
@@ -1480,7 +1596,7 @@
     </row>
     <row r="3" spans="1:10" ht="53.25" customHeight="1">
       <c r="A3" s="37" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B3" s="37"/>
       <c r="C3" s="37"/>
@@ -1495,7 +1611,7 @@
     <row r="4" spans="1:10" ht="8.25" customHeight="1"/>
     <row r="5" spans="1:10">
       <c r="A5" s="37" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B5" s="37"/>
       <c r="C5" s="37"/>
@@ -1509,7 +1625,7 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="37" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B7" s="37"/>
       <c r="C7" s="37"/>
@@ -1523,7 +1639,7 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="37" t="s">
-        <v>74</v>
+        <v>4</v>
       </c>
       <c r="B9" s="37"/>
       <c r="C9" s="37"/>
@@ -1537,7 +1653,7 @@
     </row>
     <row r="15" spans="1:10" ht="52.5" customHeight="1">
       <c r="A15" s="37" t="s">
-        <v>75</v>
+        <v>5</v>
       </c>
       <c r="B15" s="37"/>
       <c r="C15" s="37"/>
@@ -1550,13 +1666,13 @@
       <c r="J15" s="37"/>
     </row>
     <row r="17" spans="1:10" ht="18.75">
-      <c r="A17" s="18" t="s">
-        <v>76</v>
+      <c r="A17" s="17" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="53.25" customHeight="1">
       <c r="A18" s="37" t="s">
-        <v>77</v>
+        <v>7</v>
       </c>
       <c r="B18" s="37"/>
       <c r="C18" s="37"/>
@@ -1569,13 +1685,13 @@
       <c r="J18" s="37"/>
     </row>
     <row r="20" spans="1:10" ht="18.75">
-      <c r="A20" s="18" t="s">
-        <v>78</v>
+      <c r="A20" s="17" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="24.75" customHeight="1">
       <c r="A21" s="37" t="s">
-        <v>79</v>
+        <v>9</v>
       </c>
       <c r="B21" s="37"/>
       <c r="C21" s="37"/>
@@ -1588,13 +1704,13 @@
       <c r="J21" s="37"/>
     </row>
     <row r="23" spans="1:10" ht="18.75">
-      <c r="A23" s="18" t="s">
-        <v>80</v>
+      <c r="A23" s="17" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="15" customHeight="1">
       <c r="A24" s="37" t="s">
-        <v>81</v>
+        <v>11</v>
       </c>
       <c r="B24" s="37"/>
       <c r="C24" s="37"/>
@@ -1607,13 +1723,13 @@
       <c r="J24" s="37"/>
     </row>
     <row r="26" spans="1:10" ht="18.75">
-      <c r="A26" s="18" t="s">
-        <v>82</v>
+      <c r="A26" s="17" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="26.25" customHeight="1">
       <c r="A27" s="37" t="s">
-        <v>83</v>
+        <v>13</v>
       </c>
       <c r="B27" s="37"/>
       <c r="C27" s="37"/>
@@ -1626,104 +1742,104 @@
       <c r="J27" s="37"/>
     </row>
     <row r="29" spans="1:10">
-      <c r="A29" s="20" t="s">
-        <v>84</v>
-      </c>
-      <c r="B29" s="20" t="s">
-        <v>85</v>
-      </c>
-      <c r="C29" s="20" t="s">
-        <v>86</v>
+      <c r="A29" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="B29" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="C29" s="19" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="30" spans="1:10">
-      <c r="A30" s="23" t="s">
-        <v>87</v>
-      </c>
-      <c r="B30" s="19" t="s">
-        <v>88</v>
-      </c>
-      <c r="C30" s="19" t="s">
-        <v>89</v>
+      <c r="A30" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="B30" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C30" s="18" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="31" spans="1:10">
       <c r="A31" s="38" t="s">
-        <v>90</v>
-      </c>
-      <c r="B31" s="19" t="s">
-        <v>91</v>
-      </c>
-      <c r="C31" s="19" t="s">
-        <v>93</v>
+        <v>20</v>
+      </c>
+      <c r="B31" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="C31" s="18" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="32" spans="1:10">
       <c r="A32" s="38"/>
-      <c r="B32" s="19" t="s">
-        <v>92</v>
-      </c>
-      <c r="C32" s="19" t="s">
-        <v>94</v>
+      <c r="B32" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C32" s="18" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="33" spans="1:3">
-      <c r="A33" s="23" t="s">
-        <v>95</v>
-      </c>
-      <c r="B33" s="19" t="s">
-        <v>96</v>
-      </c>
-      <c r="C33" s="19" t="s">
-        <v>97</v>
+      <c r="A33" s="35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" s="18" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="34" spans="1:3">
-      <c r="A34" s="23" t="s">
-        <v>98</v>
-      </c>
-      <c r="B34" s="19" t="s">
-        <v>99</v>
-      </c>
-      <c r="C34" s="21" t="s">
-        <v>105</v>
+      <c r="A34" s="35" t="s">
+        <v>28</v>
+      </c>
+      <c r="B34" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="C34" s="20" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="35" spans="1:3">
-      <c r="A35" s="23" t="s">
-        <v>100</v>
-      </c>
-      <c r="B35" s="19" t="s">
-        <v>101</v>
-      </c>
-      <c r="C35" s="22">
+      <c r="A35" s="35" t="s">
+        <v>31</v>
+      </c>
+      <c r="B35" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="C35" s="21">
         <v>0.2</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="25.5">
-      <c r="A36" s="23" t="s">
-        <v>102</v>
-      </c>
-      <c r="B36" s="19" t="s">
-        <v>103</v>
-      </c>
-      <c r="C36" s="19" t="s">
-        <v>104</v>
+      <c r="A36" s="35" t="s">
+        <v>33</v>
+      </c>
+      <c r="B36" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="C36" s="18" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <mergeCells count="11">
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="A3:J3"/>
+    <mergeCell ref="A5:J5"/>
+    <mergeCell ref="A7:J7"/>
+    <mergeCell ref="A21:J21"/>
     <mergeCell ref="A27:J27"/>
     <mergeCell ref="A31:A32"/>
     <mergeCell ref="A9:J9"/>
     <mergeCell ref="A15:J15"/>
     <mergeCell ref="A18:J18"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A3:J3"/>
-    <mergeCell ref="A5:J5"/>
-    <mergeCell ref="A7:J7"/>
-    <mergeCell ref="A21:J21"/>
     <mergeCell ref="A24:J24"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
@@ -1738,13 +1854,13 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
   <dimension ref="A1:K83"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
       <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
@@ -1766,7 +1882,7 @@
     </row>
     <row r="2" spans="1:5" ht="14.25">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="3"/>
@@ -1778,112 +1894,112 @@
       <c r="E3" s="3"/>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="39" t="s">
+      <c r="A4" s="46" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4" s="46"/>
+      <c r="C4" s="46"/>
+      <c r="D4" s="12">
         <v>4</v>
       </c>
-      <c r="B4" s="39"/>
-      <c r="C4" s="39"/>
-      <c r="D4" s="13">
-        <v>4</v>
-      </c>
       <c r="E4" s="4" t="s">
-        <v>172</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="39" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="39"/>
-      <c r="C5" s="39"/>
-      <c r="D5" s="13">
+      <c r="A5" s="46" t="s">
+        <v>39</v>
+      </c>
+      <c r="B5" s="46"/>
+      <c r="C5" s="46"/>
+      <c r="D5" s="12">
         <f>D4*D4</f>
         <v>16</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="39" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="39"/>
-      <c r="C9" s="39"/>
-      <c r="D9" s="13">
+      <c r="A9" s="46" t="s">
+        <v>42</v>
+      </c>
+      <c r="B9" s="46"/>
+      <c r="C9" s="46"/>
+      <c r="D9" s="12">
         <v>9</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>172</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="39" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" s="39"/>
-      <c r="C10" s="39"/>
-      <c r="D10" s="13">
+      <c r="A10" s="46" t="s">
+        <v>43</v>
+      </c>
+      <c r="B10" s="46"/>
+      <c r="C10" s="46"/>
+      <c r="D10" s="12">
         <f>D9^3</f>
         <v>729</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>10</v>
+        <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="39" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" s="39"/>
-      <c r="C11" s="39"/>
-      <c r="D11" s="13">
+      <c r="A11" s="46" t="s">
+        <v>45</v>
+      </c>
+      <c r="B11" s="46"/>
+      <c r="C11" s="46"/>
+      <c r="D11" s="12">
         <f>D9^2*6</f>
         <v>486</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>12</v>
+        <v>46</v>
       </c>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="41" t="s">
-        <v>13</v>
-      </c>
-      <c r="B15" s="41"/>
-      <c r="C15" s="41"/>
-      <c r="D15" s="14">
+      <c r="A15" s="39" t="s">
+        <v>47</v>
+      </c>
+      <c r="B15" s="39"/>
+      <c r="C15" s="39"/>
+      <c r="D15" s="13">
         <v>6</v>
       </c>
       <c r="E15" s="7"/>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="41" t="s">
-        <v>14</v>
-      </c>
-      <c r="B16" s="41"/>
-      <c r="C16" s="41"/>
-      <c r="D16" s="14">
+      <c r="A16" s="39" t="s">
+        <v>48</v>
+      </c>
+      <c r="B16" s="39"/>
+      <c r="C16" s="39"/>
+      <c r="D16" s="13">
         <v>1500</v>
       </c>
       <c r="E16" s="7"/>
     </row>
     <row r="17" spans="1:11">
-      <c r="A17" s="41" t="s">
-        <v>15</v>
-      </c>
-      <c r="B17" s="41"/>
-      <c r="C17" s="41"/>
-      <c r="D17" s="14">
+      <c r="A17" s="39" t="s">
+        <v>49</v>
+      </c>
+      <c r="B17" s="39"/>
+      <c r="C17" s="39"/>
+      <c r="D17" s="13">
         <f>D16/D15</f>
         <v>250</v>
       </c>
@@ -1891,51 +2007,51 @@
     </row>
     <row r="19" spans="1:11">
       <c r="A19" t="s">
-        <v>16</v>
+        <v>50</v>
       </c>
     </row>
     <row r="21" spans="1:11">
-      <c r="A21" s="41" t="s">
-        <v>17</v>
-      </c>
-      <c r="B21" s="41"/>
-      <c r="C21" s="41"/>
-      <c r="D21" s="14">
+      <c r="A21" s="39" t="s">
+        <v>51</v>
+      </c>
+      <c r="B21" s="39"/>
+      <c r="C21" s="39"/>
+      <c r="D21" s="13">
         <v>645873</v>
       </c>
       <c r="E21" s="7"/>
     </row>
     <row r="22" spans="1:11">
-      <c r="A22" s="41" t="s">
-        <v>18</v>
-      </c>
-      <c r="B22" s="41"/>
-      <c r="C22" s="41"/>
-      <c r="D22" s="14">
+      <c r="A22" s="39" t="s">
+        <v>52</v>
+      </c>
+      <c r="B22" s="39"/>
+      <c r="C22" s="39"/>
+      <c r="D22" s="13">
         <f>D21*8</f>
         <v>5166984</v>
       </c>
       <c r="E22" s="7"/>
     </row>
     <row r="23" spans="1:11">
-      <c r="A23" s="41" t="s">
-        <v>19</v>
-      </c>
-      <c r="B23" s="41"/>
-      <c r="C23" s="41"/>
-      <c r="D23" s="14">
+      <c r="A23" s="39" t="s">
+        <v>53</v>
+      </c>
+      <c r="B23" s="39"/>
+      <c r="C23" s="39"/>
+      <c r="D23" s="13">
         <f>D21/1024</f>
         <v>630.7353515625</v>
       </c>
       <c r="E23" s="7"/>
     </row>
     <row r="24" spans="1:11">
-      <c r="A24" s="41" t="s">
-        <v>20</v>
-      </c>
-      <c r="B24" s="41"/>
-      <c r="C24" s="41"/>
-      <c r="D24" s="14">
+      <c r="A24" s="39" t="s">
+        <v>54</v>
+      </c>
+      <c r="B24" s="39"/>
+      <c r="C24" s="39"/>
+      <c r="D24" s="13">
         <f>D23/1024</f>
         <v>0.61595249176025391</v>
       </c>
@@ -1943,7 +2059,7 @@
     </row>
     <row r="26" spans="1:11" ht="50.25" customHeight="1">
       <c r="A26" s="40" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="B26" s="40"/>
       <c r="C26" s="40"/>
@@ -1957,171 +2073,171 @@
       <c r="K26" s="40"/>
     </row>
     <row r="28" spans="1:11" ht="25.5">
-      <c r="A28" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="B28" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C28" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D28" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="E28" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="F28" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="G28" s="23" t="s">
-        <v>173</v>
+      <c r="A28" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="B28" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="D28" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="E28" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="F28" s="24" t="s">
+        <v>61</v>
+      </c>
+      <c r="G28" s="35" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="29" spans="1:11">
-      <c r="A29" s="9">
+      <c r="A29" s="8">
         <v>74545</v>
       </c>
-      <c r="B29" s="9">
+      <c r="B29" s="8">
         <f>A29*0.4</f>
         <v>29818</v>
       </c>
-      <c r="C29" s="9">
+      <c r="C29" s="8">
         <f>0.13*(A29-G29-D29)</f>
         <v>9073.9415000000008</v>
       </c>
-      <c r="D29" s="9">
+      <c r="D29" s="8">
         <f>A29*0.01</f>
         <v>745.45</v>
       </c>
-      <c r="E29" s="9">
+      <c r="E29" s="8">
         <f>B29*0.01</f>
         <v>298.18</v>
       </c>
-      <c r="F29" s="27">
+      <c r="F29" s="25">
         <f>A29-B29-C29-D29-E29</f>
         <v>34609.428500000002</v>
       </c>
-      <c r="G29" s="28">
+      <c r="G29" s="26">
         <v>4000</v>
       </c>
     </row>
     <row r="30" spans="1:11">
-      <c r="A30" s="9">
+      <c r="A30" s="8">
         <v>57500</v>
       </c>
-      <c r="B30" s="9">
+      <c r="B30" s="8">
         <f>A30*0.4</f>
         <v>23000</v>
       </c>
-      <c r="C30" s="9">
+      <c r="C30" s="8">
         <f>0.13*(A30-G30-D30)</f>
         <v>6880.25</v>
       </c>
-      <c r="D30" s="9">
+      <c r="D30" s="8">
         <f t="shared" ref="D30:E33" si="0">A30*0.01</f>
         <v>575</v>
       </c>
-      <c r="E30" s="9">
+      <c r="E30" s="8">
         <f t="shared" si="0"/>
         <v>230</v>
       </c>
-      <c r="F30" s="9">
+      <c r="F30" s="8">
         <f>A30-B30-C30-D30-E30</f>
         <v>26814.75</v>
       </c>
-      <c r="G30" s="28">
+      <c r="G30" s="26">
         <v>4000</v>
       </c>
     </row>
     <row r="31" spans="1:11">
-      <c r="A31" s="29">
+      <c r="A31" s="27">
         <v>143872</v>
       </c>
-      <c r="B31" s="29">
+      <c r="B31" s="27">
         <f>A31*0.4</f>
         <v>57548.800000000003</v>
       </c>
-      <c r="C31" s="29">
+      <c r="C31" s="27">
         <f>0.13*(A31-G31-D31)</f>
         <v>17996.326400000002</v>
       </c>
-      <c r="D31" s="9">
+      <c r="D31" s="8">
         <f t="shared" si="0"/>
         <v>1438.72</v>
       </c>
-      <c r="E31" s="9">
+      <c r="E31" s="8">
         <f t="shared" si="0"/>
         <v>575.48800000000006</v>
       </c>
-      <c r="F31" s="29">
+      <c r="F31" s="27">
         <f>A31-B31-C31-D31-E31</f>
         <v>66312.665599999993</v>
       </c>
-      <c r="G31" s="28">
+      <c r="G31" s="26">
         <v>4000</v>
       </c>
     </row>
     <row r="32" spans="1:11">
-      <c r="A32" s="29">
+      <c r="A32" s="27">
         <v>35300</v>
       </c>
-      <c r="B32" s="29">
+      <c r="B32" s="27">
         <f>A32*0.4</f>
         <v>14120</v>
       </c>
-      <c r="C32" s="29">
+      <c r="C32" s="27">
         <f>0.13*(A32-G32-D32)</f>
         <v>4023.11</v>
       </c>
-      <c r="D32" s="9">
+      <c r="D32" s="8">
         <f t="shared" si="0"/>
         <v>353</v>
       </c>
-      <c r="E32" s="9">
+      <c r="E32" s="8">
         <f t="shared" si="0"/>
         <v>141.20000000000002</v>
       </c>
-      <c r="F32" s="29">
+      <c r="F32" s="27">
         <f>A32-B32-C32-D32-E32</f>
         <v>16662.689999999999</v>
       </c>
-      <c r="G32" s="28">
+      <c r="G32" s="26">
         <v>4000</v>
       </c>
     </row>
     <row r="33" spans="1:11">
-      <c r="A33" s="9">
+      <c r="A33" s="8">
         <v>26000</v>
       </c>
-      <c r="B33" s="9">
+      <c r="B33" s="8">
         <f>A33*0.4</f>
         <v>10400</v>
       </c>
-      <c r="C33" s="9">
+      <c r="C33" s="8">
         <f>0.13*(A33-G33-D33)</f>
         <v>2826.2000000000003</v>
       </c>
-      <c r="D33" s="9">
+      <c r="D33" s="8">
         <f t="shared" si="0"/>
         <v>260</v>
       </c>
-      <c r="E33" s="9">
+      <c r="E33" s="8">
         <f t="shared" si="0"/>
         <v>104</v>
       </c>
-      <c r="F33" s="9">
+      <c r="F33" s="8">
         <f>A33-B33-C33-D33-E33</f>
         <v>12409.8</v>
       </c>
-      <c r="G33" s="28">
+      <c r="G33" s="26">
         <v>4000</v>
       </c>
     </row>
     <row r="34" spans="1:11" ht="70.5" customHeight="1">
       <c r="A34" s="40" t="s">
-        <v>27</v>
+        <v>63</v>
       </c>
       <c r="B34" s="40"/>
       <c r="C34" s="40"/>
@@ -2136,7 +2252,7 @@
     </row>
     <row r="36" spans="1:11" ht="39.75" customHeight="1">
       <c r="A36" s="40" t="s">
-        <v>28</v>
+        <v>64</v>
       </c>
       <c r="B36" s="40"/>
       <c r="C36" s="40"/>
@@ -2150,214 +2266,214 @@
       <c r="K36" s="40"/>
     </row>
     <row r="38" spans="1:11" ht="25.35" customHeight="1">
-      <c r="A38" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="B38" s="41" t="s">
-        <v>30</v>
-      </c>
-      <c r="C38" s="41"/>
-      <c r="D38" s="41" t="s">
-        <v>31</v>
-      </c>
-      <c r="E38" s="41"/>
-      <c r="F38" s="41" t="s">
-        <v>32</v>
-      </c>
-      <c r="G38" s="41"/>
+      <c r="A38" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="B38" s="39" t="s">
+        <v>66</v>
+      </c>
+      <c r="C38" s="39"/>
+      <c r="D38" s="39" t="s">
+        <v>67</v>
+      </c>
+      <c r="E38" s="39"/>
+      <c r="F38" s="39" t="s">
+        <v>68</v>
+      </c>
+      <c r="G38" s="39"/>
     </row>
     <row r="39" spans="1:11">
-      <c r="A39" s="9"/>
-      <c r="B39" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="C39" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="D39" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="E39" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="F39" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="G39" s="8" t="s">
-        <v>34</v>
+      <c r="A39" s="8"/>
+      <c r="B39" s="36" t="s">
+        <v>69</v>
+      </c>
+      <c r="C39" s="36" t="s">
+        <v>70</v>
+      </c>
+      <c r="D39" s="36" t="s">
+        <v>69</v>
+      </c>
+      <c r="E39" s="36" t="s">
+        <v>70</v>
+      </c>
+      <c r="F39" s="36" t="s">
+        <v>69</v>
+      </c>
+      <c r="G39" s="36" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="40" spans="1:11">
-      <c r="A40" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="B40" s="8">
+      <c r="A40" s="36" t="s">
+        <v>71</v>
+      </c>
+      <c r="B40" s="36">
         <v>100.41</v>
       </c>
-      <c r="C40" s="31">
+      <c r="C40" s="29">
         <f>B40*C42/B42</f>
         <v>0.39368751225249954</v>
       </c>
-      <c r="D40" s="8">
+      <c r="D40" s="36">
         <v>48.43</v>
       </c>
-      <c r="E40" s="31">
+      <c r="E40" s="29">
         <f>D40*E42/D42</f>
         <v>0.18988433640462654</v>
       </c>
-      <c r="F40" s="15">
+      <c r="F40" s="14">
         <f>B40+D40</f>
         <v>148.84</v>
       </c>
-      <c r="G40" s="31">
+      <c r="G40" s="29">
         <f>F40*G42/F42</f>
         <v>0.29178592432856304</v>
       </c>
     </row>
     <row r="41" spans="1:11">
-      <c r="A41" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="B41" s="8">
+      <c r="A41" s="36" t="s">
+        <v>72</v>
+      </c>
+      <c r="B41" s="36">
         <v>154.63999999999999</v>
       </c>
-      <c r="C41" s="31">
+      <c r="C41" s="29">
         <f>B41*C42/B42</f>
         <v>0.60631248774750046</v>
       </c>
-      <c r="D41" s="8">
+      <c r="D41" s="36">
         <v>206.62</v>
       </c>
-      <c r="E41" s="31">
+      <c r="E41" s="29">
         <f>D41*E42/D42</f>
         <v>0.81011566359537346</v>
       </c>
-      <c r="F41" s="15">
+      <c r="F41" s="14">
         <f>B41+D41</f>
         <v>361.26</v>
       </c>
-      <c r="G41" s="31">
+      <c r="G41" s="29">
         <f>F41*G42/F42</f>
         <v>0.7082140756714369</v>
       </c>
     </row>
     <row r="42" spans="1:11">
-      <c r="A42" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="B42" s="15">
+      <c r="A42" s="36" t="s">
+        <v>73</v>
+      </c>
+      <c r="B42" s="14">
         <f>B40+B41</f>
         <v>255.04999999999998</v>
       </c>
-      <c r="C42" s="30">
+      <c r="C42" s="28">
         <v>1</v>
       </c>
-      <c r="D42" s="15">
+      <c r="D42" s="14">
         <f>SUM(D40:D41)</f>
         <v>255.05</v>
       </c>
-      <c r="E42" s="30">
+      <c r="E42" s="28">
         <v>1</v>
       </c>
-      <c r="F42" s="15">
+      <c r="F42" s="14">
         <f>B42+D42</f>
         <v>510.1</v>
       </c>
-      <c r="G42" s="30">
+      <c r="G42" s="28">
         <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:11">
       <c r="A44" t="s">
-        <v>38</v>
+        <v>74</v>
       </c>
     </row>
     <row r="46" spans="1:11">
-      <c r="A46" s="41" t="s">
-        <v>39</v>
-      </c>
-      <c r="B46" s="41"/>
-      <c r="C46" s="41"/>
-      <c r="D46" s="41"/>
-      <c r="E46" s="41"/>
+      <c r="A46" s="39" t="s">
+        <v>75</v>
+      </c>
+      <c r="B46" s="39"/>
+      <c r="C46" s="39"/>
+      <c r="D46" s="39"/>
+      <c r="E46" s="39"/>
     </row>
     <row r="47" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A47" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="B47" s="41" t="s">
-        <v>41</v>
-      </c>
-      <c r="C47" s="41"/>
-      <c r="D47" s="46" t="s">
-        <v>42</v>
-      </c>
-      <c r="E47" s="46"/>
+      <c r="A47" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="B47" s="39" t="s">
+        <v>77</v>
+      </c>
+      <c r="C47" s="39"/>
+      <c r="D47" s="45" t="s">
+        <v>78</v>
+      </c>
+      <c r="E47" s="45"/>
     </row>
     <row r="48" spans="1:11">
-      <c r="A48" s="12"/>
-      <c r="B48" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="C48" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="D48" s="46"/>
-      <c r="E48" s="46"/>
+      <c r="A48" s="11"/>
+      <c r="B48" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="C48" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="D48" s="45"/>
+      <c r="E48" s="45"/>
     </row>
     <row r="49" spans="1:11">
-      <c r="A49" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="B49" s="16">
+      <c r="A49" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="B49" s="15">
         <f>B51-B50</f>
         <v>11</v>
       </c>
-      <c r="C49" s="12">
+      <c r="C49" s="11">
         <v>14</v>
       </c>
-      <c r="D49" s="44">
+      <c r="D49" s="43">
         <f>B49+C49</f>
         <v>25</v>
       </c>
-      <c r="E49" s="45"/>
+      <c r="E49" s="44"/>
     </row>
     <row r="50" spans="1:11">
-      <c r="A50" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="B50" s="12">
+      <c r="A50" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="B50" s="11">
         <v>13</v>
       </c>
-      <c r="C50" s="16">
+      <c r="C50" s="15">
         <f>D50-B50</f>
         <v>13</v>
       </c>
-      <c r="D50" s="42">
+      <c r="D50" s="41">
         <v>26</v>
       </c>
-      <c r="E50" s="43"/>
+      <c r="E50" s="42"/>
     </row>
     <row r="51" spans="1:11">
-      <c r="A51" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="B51" s="12">
+      <c r="A51" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="B51" s="11">
         <v>24</v>
       </c>
-      <c r="C51" s="16">
+      <c r="C51" s="15">
         <f>C49+C50</f>
         <v>27</v>
       </c>
-      <c r="D51" s="44">
+      <c r="D51" s="43">
         <f>SUM(D49:E50)</f>
         <v>51</v>
       </c>
-      <c r="E51" s="45"/>
+      <c r="E51" s="44"/>
     </row>
     <row r="53" spans="1:11" ht="23.25" customHeight="1">
       <c r="A53" s="40" t="s">
-        <v>48</v>
+        <v>83</v>
       </c>
       <c r="B53" s="40"/>
       <c r="C53" s="40"/>
@@ -2371,10 +2487,10 @@
       <c r="K53" s="40"/>
     </row>
     <row r="55" spans="1:11" ht="18" customHeight="1">
-      <c r="A55" s="9" t="s">
-        <v>174</v>
-      </c>
-      <c r="B55" s="14">
+      <c r="A55" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="B55" s="13">
         <v>1000</v>
       </c>
       <c r="C55" s="6"/>
@@ -2386,10 +2502,10 @@
       <c r="I55" s="6"/>
     </row>
     <row r="56" spans="1:11">
-      <c r="A56" s="14">
+      <c r="A56" s="13">
         <v>1</v>
       </c>
-      <c r="B56" s="14">
+      <c r="B56" s="13">
         <f t="shared" ref="B56:B67" si="1">B55+B55*0.012</f>
         <v>1012</v>
       </c>
@@ -2402,10 +2518,10 @@
       <c r="I56" s="6"/>
     </row>
     <row r="57" spans="1:11">
-      <c r="A57" s="14">
+      <c r="A57" s="13">
         <v>2</v>
       </c>
-      <c r="B57" s="14">
+      <c r="B57" s="13">
         <f t="shared" si="1"/>
         <v>1024.144</v>
       </c>
@@ -2418,10 +2534,10 @@
       <c r="I57" s="6"/>
     </row>
     <row r="58" spans="1:11">
-      <c r="A58" s="14">
+      <c r="A58" s="13">
         <v>3</v>
       </c>
-      <c r="B58" s="14">
+      <c r="B58" s="13">
         <f t="shared" si="1"/>
         <v>1036.433728</v>
       </c>
@@ -2434,10 +2550,10 @@
       <c r="I58" s="6"/>
     </row>
     <row r="59" spans="1:11">
-      <c r="A59" s="14">
+      <c r="A59" s="13">
         <v>4</v>
       </c>
-      <c r="B59" s="14">
+      <c r="B59" s="13">
         <f t="shared" si="1"/>
         <v>1048.870932736</v>
       </c>
@@ -2450,10 +2566,10 @@
       <c r="I59" s="6"/>
     </row>
     <row r="60" spans="1:11">
-      <c r="A60" s="14">
+      <c r="A60" s="13">
         <v>5</v>
       </c>
-      <c r="B60" s="14">
+      <c r="B60" s="13">
         <f t="shared" si="1"/>
         <v>1061.4573839288321</v>
       </c>
@@ -2466,10 +2582,10 @@
       <c r="I60" s="6"/>
     </row>
     <row r="61" spans="1:11">
-      <c r="A61" s="14">
+      <c r="A61" s="13">
         <v>6</v>
       </c>
-      <c r="B61" s="14">
+      <c r="B61" s="13">
         <f t="shared" si="1"/>
         <v>1074.194872535978</v>
       </c>
@@ -2482,10 +2598,10 @@
       <c r="I61" s="6"/>
     </row>
     <row r="62" spans="1:11">
-      <c r="A62" s="14">
+      <c r="A62" s="13">
         <v>7</v>
       </c>
-      <c r="B62" s="14">
+      <c r="B62" s="13">
         <f t="shared" si="1"/>
         <v>1087.0852110064097</v>
       </c>
@@ -2498,10 +2614,10 @@
       <c r="I62" s="6"/>
     </row>
     <row r="63" spans="1:11">
-      <c r="A63" s="14">
+      <c r="A63" s="13">
         <v>8</v>
       </c>
-      <c r="B63" s="14">
+      <c r="B63" s="13">
         <f t="shared" si="1"/>
         <v>1100.1302335384867</v>
       </c>
@@ -2514,10 +2630,10 @@
       <c r="I63" s="6"/>
     </row>
     <row r="64" spans="1:11">
-      <c r="A64" s="14">
+      <c r="A64" s="13">
         <v>9</v>
       </c>
-      <c r="B64" s="14">
+      <c r="B64" s="13">
         <f t="shared" si="1"/>
         <v>1113.3317963409486</v>
       </c>
@@ -2530,10 +2646,10 @@
       <c r="I64" s="6"/>
     </row>
     <row r="65" spans="1:9">
-      <c r="A65" s="14">
+      <c r="A65" s="13">
         <v>10</v>
       </c>
-      <c r="B65" s="14">
+      <c r="B65" s="13">
         <f t="shared" si="1"/>
         <v>1126.6917778970401</v>
       </c>
@@ -2546,10 +2662,10 @@
       <c r="I65" s="6"/>
     </row>
     <row r="66" spans="1:9">
-      <c r="A66" s="14">
+      <c r="A66" s="13">
         <v>11</v>
       </c>
-      <c r="B66" s="14">
+      <c r="B66" s="13">
         <f t="shared" si="1"/>
         <v>1140.2120792318046</v>
       </c>
@@ -2562,10 +2678,10 @@
       <c r="I66" s="6"/>
     </row>
     <row r="67" spans="1:9">
-      <c r="A67" s="14">
+      <c r="A67" s="13">
         <v>12</v>
       </c>
-      <c r="B67" s="14">
+      <c r="B67" s="13">
         <f t="shared" si="1"/>
         <v>1153.8946241825863</v>
       </c>
@@ -2578,8 +2694,8 @@
       <c r="I67" s="6"/>
     </row>
     <row r="68" spans="1:9">
-      <c r="A68" s="32"/>
-      <c r="B68" s="32"/>
+      <c r="A68" s="30"/>
+      <c r="B68" s="30"/>
       <c r="C68" s="6"/>
       <c r="D68" s="6"/>
       <c r="E68" s="6"/>
@@ -2755,13 +2871,15 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="A46:E46"/>
-    <mergeCell ref="A53:K53"/>
-    <mergeCell ref="D50:E50"/>
-    <mergeCell ref="D49:E49"/>
-    <mergeCell ref="D51:E51"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="D47:E48"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="A26:K26"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="A17:C17"/>
     <mergeCell ref="A36:K36"/>
     <mergeCell ref="B38:C38"/>
     <mergeCell ref="D38:E38"/>
@@ -2770,16 +2888,14 @@
     <mergeCell ref="A23:C23"/>
     <mergeCell ref="A24:C24"/>
     <mergeCell ref="F38:G38"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="A26:K26"/>
     <mergeCell ref="A34:K34"/>
-    <mergeCell ref="A11:C11"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="A46:E46"/>
+    <mergeCell ref="A53:K53"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="D47:E48"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0527777777777778" bottom="1.0527777777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
@@ -2792,14 +2908,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <sheetPr>
     <tabColor indexed="49"/>
   </sheetPr>
   <dimension ref="A18:P141"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A115" workbookViewId="0">
-      <selection activeCell="D141" sqref="D141"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D126" sqref="D126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.28515625" defaultRowHeight="12.75"/>
@@ -2810,219 +2926,219 @@
   </cols>
   <sheetData>
     <row r="18" spans="1:5" ht="18.75">
-      <c r="A18" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="B18" s="17"/>
-      <c r="C18" s="17"/>
-      <c r="D18" s="17"/>
-      <c r="E18" s="17"/>
+      <c r="A18" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="B18" s="16"/>
+      <c r="C18" s="16"/>
+      <c r="D18" s="16"/>
+      <c r="E18" s="16"/>
     </row>
     <row r="19" spans="1:5" ht="18.75">
-      <c r="A19" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="B19" s="17"/>
-      <c r="C19" s="17"/>
-      <c r="D19" s="17"/>
-      <c r="E19" s="17"/>
+      <c r="A19" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="B19" s="16"/>
+      <c r="C19" s="16"/>
+      <c r="D19" s="16"/>
+      <c r="E19" s="16"/>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" t="s">
-        <v>54</v>
+        <v>87</v>
       </c>
     </row>
     <row r="22" spans="1:5">
-      <c r="A22" s="50" t="s">
-        <v>49</v>
-      </c>
-      <c r="B22" s="50"/>
-      <c r="C22" s="50"/>
-      <c r="D22" s="14">
+      <c r="A22" s="48" t="s">
+        <v>88</v>
+      </c>
+      <c r="B22" s="48"/>
+      <c r="C22" s="48"/>
+      <c r="D22" s="13">
         <f>18</f>
         <v>18</v>
       </c>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23" s="50" t="s">
-        <v>50</v>
-      </c>
-      <c r="B23" s="50"/>
-      <c r="C23" s="50"/>
-      <c r="D23" s="14">
+      <c r="A23" s="48" t="s">
+        <v>89</v>
+      </c>
+      <c r="B23" s="48"/>
+      <c r="C23" s="48"/>
+      <c r="D23" s="13">
         <f>INT(D22/10)</f>
         <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:5">
-      <c r="A24" s="50" t="s">
-        <v>51</v>
-      </c>
-      <c r="B24" s="50"/>
-      <c r="C24" s="50"/>
-      <c r="D24" s="14">
+      <c r="A24" s="48" t="s">
+        <v>90</v>
+      </c>
+      <c r="B24" s="48"/>
+      <c r="C24" s="48"/>
+      <c r="D24" s="13">
         <f>MOD(D22,10)</f>
         <v>8</v>
       </c>
     </row>
     <row r="25" spans="1:5">
-      <c r="A25" s="50" t="s">
-        <v>52</v>
-      </c>
-      <c r="B25" s="50"/>
-      <c r="C25" s="50"/>
-      <c r="D25" s="14">
+      <c r="A25" s="48" t="s">
+        <v>91</v>
+      </c>
+      <c r="B25" s="48"/>
+      <c r="C25" s="48"/>
+      <c r="D25" s="13">
         <f>SUM(D23+D24)</f>
         <v>9</v>
       </c>
     </row>
     <row r="26" spans="1:5">
-      <c r="A26" s="50" t="s">
-        <v>53</v>
-      </c>
-      <c r="B26" s="50"/>
-      <c r="C26" s="50"/>
-      <c r="D26" s="14">
+      <c r="A26" s="48" t="s">
+        <v>92</v>
+      </c>
+      <c r="B26" s="48"/>
+      <c r="C26" s="48"/>
+      <c r="D26" s="13">
         <f>PRODUCT(D23:D24)</f>
         <v>8</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" t="s">
-        <v>55</v>
+        <v>93</v>
       </c>
     </row>
     <row r="30" spans="1:5">
-      <c r="A30" s="50" t="s">
-        <v>49</v>
-      </c>
-      <c r="B30" s="50"/>
-      <c r="C30" s="50"/>
-      <c r="D30" s="14">
+      <c r="A30" s="48" t="s">
+        <v>88</v>
+      </c>
+      <c r="B30" s="48"/>
+      <c r="C30" s="48"/>
+      <c r="D30" s="13">
         <v>29</v>
       </c>
     </row>
     <row r="31" spans="1:5">
-      <c r="A31" s="50" t="s">
-        <v>56</v>
-      </c>
-      <c r="B31" s="50"/>
-      <c r="C31" s="50"/>
-      <c r="D31" s="14" t="str">
+      <c r="A31" s="48" t="s">
+        <v>94</v>
+      </c>
+      <c r="B31" s="48"/>
+      <c r="C31" s="48"/>
+      <c r="D31" s="13" t="str">
         <f>CONCATENATE((RIGHT(D30,1)),(LEFT(D30,1)))</f>
         <v>92</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" t="s">
-        <v>57</v>
+        <v>95</v>
       </c>
     </row>
     <row r="35" spans="1:4">
-      <c r="A35" s="50" t="s">
-        <v>58</v>
-      </c>
-      <c r="B35" s="50"/>
-      <c r="C35" s="50"/>
-      <c r="D35" s="14">
+      <c r="A35" s="48" t="s">
+        <v>96</v>
+      </c>
+      <c r="B35" s="48"/>
+      <c r="C35" s="48"/>
+      <c r="D35" s="13">
         <v>584</v>
       </c>
     </row>
     <row r="36" spans="1:4">
-      <c r="A36" s="50" t="s">
-        <v>59</v>
-      </c>
-      <c r="B36" s="50"/>
-      <c r="C36" s="50"/>
-      <c r="D36" s="14" t="str">
+      <c r="A36" s="48" t="s">
+        <v>97</v>
+      </c>
+      <c r="B36" s="48"/>
+      <c r="C36" s="48"/>
+      <c r="D36" s="13" t="str">
         <f>CONCATENATE((RIGHT(D35,2)),(LEFT(D35,1)))</f>
         <v>845</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" t="s">
-        <v>61</v>
+        <v>98</v>
       </c>
     </row>
     <row r="40" spans="1:4">
-      <c r="A40" s="50" t="s">
-        <v>58</v>
-      </c>
-      <c r="B40" s="50"/>
-      <c r="C40" s="50"/>
-      <c r="D40" s="14">
+      <c r="A40" s="48" t="s">
+        <v>96</v>
+      </c>
+      <c r="B40" s="48"/>
+      <c r="C40" s="48"/>
+      <c r="D40" s="13">
         <v>752</v>
       </c>
     </row>
     <row r="41" spans="1:4">
-      <c r="A41" s="50" t="s">
-        <v>59</v>
-      </c>
-      <c r="B41" s="50"/>
-      <c r="C41" s="50"/>
-      <c r="D41" s="14" t="str">
+      <c r="A41" s="48" t="s">
+        <v>97</v>
+      </c>
+      <c r="B41" s="48"/>
+      <c r="C41" s="48"/>
+      <c r="D41" s="13" t="str">
         <f>CONCATENATE((RIGHT(D40,1)),(LEFT(D40,2)))</f>
         <v>275</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" t="s">
-        <v>62</v>
+        <v>99</v>
       </c>
     </row>
     <row r="45" spans="1:4">
-      <c r="A45" s="50" t="s">
-        <v>63</v>
-      </c>
-      <c r="B45" s="50"/>
-      <c r="C45" s="50"/>
-      <c r="D45" s="14">
+      <c r="A45" s="48" t="s">
+        <v>100</v>
+      </c>
+      <c r="B45" s="48"/>
+      <c r="C45" s="48"/>
+      <c r="D45" s="13">
         <v>11523</v>
       </c>
     </row>
     <row r="46" spans="1:4">
-      <c r="A46" s="50" t="s">
-        <v>59</v>
-      </c>
-      <c r="B46" s="50"/>
-      <c r="C46" s="50"/>
-      <c r="D46" s="14" t="str">
+      <c r="A46" s="48" t="s">
+        <v>97</v>
+      </c>
+      <c r="B46" s="48"/>
+      <c r="C46" s="48"/>
+      <c r="D46" s="13" t="str">
         <f>LEFT(RIGHT(D45,3),1)</f>
         <v>5</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="18.75">
-      <c r="A48" s="17" t="s">
-        <v>65</v>
+      <c r="A48" s="16" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="50" spans="1:11">
       <c r="A50" t="s">
-        <v>66</v>
+        <v>102</v>
       </c>
     </row>
     <row r="52" spans="1:11" ht="16.5" customHeight="1">
-      <c r="A52" s="58" t="s">
-        <v>67</v>
-      </c>
-      <c r="B52" s="58"/>
-      <c r="C52" s="58"/>
-      <c r="D52" s="36">
+      <c r="A52" s="55" t="s">
+        <v>103</v>
+      </c>
+      <c r="B52" s="55"/>
+      <c r="C52" s="55"/>
+      <c r="D52" s="34">
         <v>5026</v>
       </c>
     </row>
     <row r="53" spans="1:11" ht="26.25" customHeight="1">
-      <c r="A53" s="59" t="s">
-        <v>69</v>
-      </c>
-      <c r="B53" s="60"/>
-      <c r="C53" s="61"/>
-      <c r="D53" s="36">
+      <c r="A53" s="56" t="s">
+        <v>104</v>
+      </c>
+      <c r="B53" s="57"/>
+      <c r="C53" s="58"/>
+      <c r="D53" s="34">
         <f>ROUNDDOWN(D52/3600,0)</f>
         <v>1</v>
       </c>
       <c r="F53" s="40" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="G53" s="40"/>
       <c r="H53" s="40"/>
@@ -3031,17 +3147,17 @@
       <c r="K53" s="40"/>
     </row>
     <row r="54" spans="1:11" ht="28.5" customHeight="1">
-      <c r="A54" s="59" t="s">
-        <v>68</v>
-      </c>
-      <c r="B54" s="60"/>
-      <c r="C54" s="61"/>
-      <c r="D54" s="35">
+      <c r="A54" s="56" t="s">
+        <v>106</v>
+      </c>
+      <c r="B54" s="57"/>
+      <c r="C54" s="58"/>
+      <c r="D54" s="33">
         <f>MOD(D52,3600)</f>
         <v>1426</v>
       </c>
       <c r="F54" s="40" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="G54" s="40"/>
       <c r="H54" s="40"/>
@@ -3050,12 +3166,12 @@
       <c r="K54" s="40"/>
     </row>
     <row r="55" spans="1:11" ht="39.75" customHeight="1">
-      <c r="A55" s="57" t="s">
-        <v>70</v>
-      </c>
-      <c r="B55" s="57"/>
-      <c r="C55" s="57"/>
-      <c r="D55" s="35">
+      <c r="A55" s="54" t="s">
+        <v>108</v>
+      </c>
+      <c r="B55" s="54"/>
+      <c r="C55" s="54"/>
+      <c r="D55" s="33">
         <f>INT(D54/60)</f>
         <v>23</v>
       </c>
@@ -3067,12 +3183,12 @@
       <c r="K55" s="40"/>
     </row>
     <row r="56" spans="1:11" ht="27" customHeight="1">
-      <c r="A56" s="57" t="s">
-        <v>71</v>
-      </c>
-      <c r="B56" s="57"/>
-      <c r="C56" s="57"/>
-      <c r="D56" s="34">
+      <c r="A56" s="54" t="s">
+        <v>109</v>
+      </c>
+      <c r="B56" s="54"/>
+      <c r="C56" s="54"/>
+      <c r="D56" s="32">
         <f>MOD(D54,60)</f>
         <v>46</v>
       </c>
@@ -3084,12 +3200,12 @@
       <c r="K56" s="40"/>
     </row>
     <row r="57" spans="1:11" ht="39" customHeight="1">
-      <c r="A57" s="57" t="s">
-        <v>72</v>
-      </c>
-      <c r="B57" s="57"/>
-      <c r="C57" s="57"/>
-      <c r="D57" s="33">
+      <c r="A57" s="54" t="s">
+        <v>110</v>
+      </c>
+      <c r="B57" s="54"/>
+      <c r="C57" s="54"/>
+      <c r="D57" s="31">
         <f>ROUNDDOWN(D56,0)</f>
         <v>46</v>
       </c>
@@ -3101,675 +3217,675 @@
       <c r="K57" s="40"/>
     </row>
     <row r="59" spans="1:11" ht="18.75">
-      <c r="A59" s="17" t="s">
-        <v>108</v>
+      <c r="A59" s="16" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="60" spans="1:11" ht="18.75">
-      <c r="A60" s="17"/>
+      <c r="A60" s="16"/>
     </row>
     <row r="61" spans="1:11">
       <c r="A61" t="s">
-        <v>54</v>
+        <v>87</v>
       </c>
     </row>
     <row r="62" spans="1:11">
-      <c r="A62" s="50" t="s">
-        <v>109</v>
-      </c>
-      <c r="B62" s="50"/>
-      <c r="C62" s="50" t="s">
-        <v>175</v>
-      </c>
-      <c r="D62" s="50"/>
+      <c r="A62" s="48" t="s">
+        <v>112</v>
+      </c>
+      <c r="B62" s="48"/>
+      <c r="C62" s="48" t="s">
+        <v>113</v>
+      </c>
+      <c r="D62" s="48"/>
     </row>
     <row r="63" spans="1:11">
-      <c r="A63" s="50" t="s">
-        <v>110</v>
-      </c>
-      <c r="B63" s="50"/>
-      <c r="C63" s="50" t="s">
-        <v>176</v>
-      </c>
-      <c r="D63" s="50"/>
+      <c r="A63" s="48" t="s">
+        <v>114</v>
+      </c>
+      <c r="B63" s="48"/>
+      <c r="C63" s="48" t="s">
+        <v>115</v>
+      </c>
+      <c r="D63" s="48"/>
     </row>
     <row r="64" spans="1:11">
-      <c r="A64" s="50" t="s">
-        <v>111</v>
-      </c>
-      <c r="B64" s="50"/>
-      <c r="C64" s="50" t="s">
-        <v>177</v>
-      </c>
-      <c r="D64" s="50"/>
+      <c r="A64" s="48" t="s">
+        <v>116</v>
+      </c>
+      <c r="B64" s="48"/>
+      <c r="C64" s="48" t="s">
+        <v>117</v>
+      </c>
+      <c r="D64" s="48"/>
     </row>
     <row r="65" spans="1:4" ht="27.75" customHeight="1">
-      <c r="A65" s="56" t="s">
-        <v>112</v>
-      </c>
-      <c r="B65" s="56"/>
-      <c r="C65" s="56" t="str">
+      <c r="A65" s="53" t="s">
+        <v>118</v>
+      </c>
+      <c r="B65" s="53"/>
+      <c r="C65" s="53" t="str">
         <f>CONCATENATE(C62," ",C63," ",C64)</f>
         <v>Дудник Андрей Романович</v>
       </c>
-      <c r="D65" s="56"/>
+      <c r="D65" s="53"/>
     </row>
     <row r="67" spans="1:4">
       <c r="A67" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
     </row>
     <row r="68" spans="1:4">
-      <c r="A68" s="50" t="s">
-        <v>115</v>
-      </c>
-      <c r="B68" s="50"/>
-      <c r="C68" s="50" t="s">
-        <v>178</v>
-      </c>
-      <c r="D68" s="50"/>
+      <c r="A68" s="48" t="s">
+        <v>120</v>
+      </c>
+      <c r="B68" s="48"/>
+      <c r="C68" s="48" t="s">
+        <v>121</v>
+      </c>
+      <c r="D68" s="48"/>
     </row>
     <row r="69" spans="1:4">
-      <c r="A69" s="50" t="s">
-        <v>116</v>
-      </c>
-      <c r="B69" s="50"/>
-      <c r="C69" s="50">
+      <c r="A69" s="48" t="s">
+        <v>122</v>
+      </c>
+      <c r="B69" s="48"/>
+      <c r="C69" s="48">
         <f>LEN(C68)</f>
         <v>7</v>
       </c>
-      <c r="D69" s="50"/>
+      <c r="D69" s="48"/>
     </row>
     <row r="71" spans="1:4">
       <c r="A71" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="72" spans="1:4">
-      <c r="A72" s="47" t="s">
-        <v>117</v>
-      </c>
-      <c r="B72" s="49"/>
-      <c r="C72" s="47" t="s">
-        <v>119</v>
-      </c>
-      <c r="D72" s="49"/>
+      <c r="A72" s="51" t="s">
+        <v>124</v>
+      </c>
+      <c r="B72" s="52"/>
+      <c r="C72" s="51" t="s">
+        <v>125</v>
+      </c>
+      <c r="D72" s="52"/>
     </row>
     <row r="73" spans="1:4">
-      <c r="A73" s="47" t="s">
-        <v>118</v>
-      </c>
-      <c r="B73" s="49"/>
-      <c r="C73" s="47" t="str">
+      <c r="A73" s="51" t="s">
+        <v>126</v>
+      </c>
+      <c r="B73" s="52"/>
+      <c r="C73" s="51" t="str">
         <f>LEFT(RIGHT(C72,9),5)</f>
         <v>форма</v>
       </c>
-      <c r="D73" s="49"/>
+      <c r="D73" s="52"/>
     </row>
     <row r="75" spans="1:4">
       <c r="A75" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="76" spans="1:4">
-      <c r="A76" s="47" t="s">
-        <v>117</v>
-      </c>
-      <c r="B76" s="49"/>
-      <c r="C76" s="47" t="s">
-        <v>119</v>
-      </c>
-      <c r="D76" s="49"/>
+      <c r="A76" s="51" t="s">
+        <v>124</v>
+      </c>
+      <c r="B76" s="52"/>
+      <c r="C76" s="51" t="s">
+        <v>125</v>
+      </c>
+      <c r="D76" s="52"/>
     </row>
     <row r="77" spans="1:4">
-      <c r="A77" s="47" t="s">
-        <v>118</v>
-      </c>
-      <c r="B77" s="49"/>
-      <c r="C77" s="47" t="str">
+      <c r="A77" s="51" t="s">
+        <v>126</v>
+      </c>
+      <c r="B77" s="52"/>
+      <c r="C77" s="51" t="str">
         <f>IF(C76="информатика","Комбинат","-")</f>
         <v>Комбинат</v>
       </c>
-      <c r="D77" s="49"/>
+      <c r="D77" s="52"/>
     </row>
     <row r="79" spans="1:4">
       <c r="A79" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
+      <c r="A80" s="51" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="80" spans="1:4">
-      <c r="A80" s="47" t="s">
-        <v>120</v>
-      </c>
-      <c r="B80" s="49"/>
-      <c r="C80" s="47" t="s">
-        <v>122</v>
-      </c>
-      <c r="D80" s="49"/>
+      <c r="B80" s="52"/>
+      <c r="C80" s="51" t="s">
+        <v>130</v>
+      </c>
+      <c r="D80" s="52"/>
     </row>
     <row r="81" spans="1:4">
-      <c r="A81" s="47" t="s">
-        <v>121</v>
-      </c>
-      <c r="B81" s="49"/>
-      <c r="C81" s="47" t="s">
-        <v>123</v>
-      </c>
-      <c r="D81" s="49"/>
+      <c r="A81" s="51" t="s">
+        <v>131</v>
+      </c>
+      <c r="B81" s="52"/>
+      <c r="C81" s="51" t="s">
+        <v>132</v>
+      </c>
+      <c r="D81" s="52"/>
     </row>
     <row r="82" spans="1:4">
-      <c r="A82" s="47" t="s">
-        <v>124</v>
-      </c>
-      <c r="B82" s="49"/>
-      <c r="C82" s="47" t="str">
+      <c r="A82" s="51" t="s">
+        <v>133</v>
+      </c>
+      <c r="B82" s="52"/>
+      <c r="C82" s="51" t="str">
         <f>CONCATENATE(LEFT(C80,7),(RIGHT(C81,3)))</f>
         <v>Информация</v>
       </c>
-      <c r="D82" s="49"/>
+      <c r="D82" s="52"/>
     </row>
     <row r="83" spans="1:4">
-      <c r="A83" s="47" t="s">
-        <v>125</v>
-      </c>
-      <c r="B83" s="49"/>
-      <c r="C83" s="47" t="str">
+      <c r="A83" s="51" t="s">
+        <v>134</v>
+      </c>
+      <c r="B83" s="52"/>
+      <c r="C83" s="51" t="str">
         <f>CONCATENATE((LEFT(C81,5)),(RIGHT(C80,3)))</f>
         <v>Оператор</v>
       </c>
-      <c r="D83" s="49"/>
+      <c r="D83" s="52"/>
     </row>
     <row r="85" spans="1:4">
       <c r="A85" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
     </row>
     <row r="86" spans="1:4">
-      <c r="A86" s="50" t="s">
-        <v>109</v>
-      </c>
-      <c r="B86" s="50"/>
-      <c r="C86" s="50" t="s">
-        <v>175</v>
-      </c>
-      <c r="D86" s="50"/>
+      <c r="A86" s="48" t="s">
+        <v>112</v>
+      </c>
+      <c r="B86" s="48"/>
+      <c r="C86" s="48" t="s">
+        <v>113</v>
+      </c>
+      <c r="D86" s="48"/>
     </row>
     <row r="87" spans="1:4">
-      <c r="A87" s="50" t="s">
-        <v>110</v>
-      </c>
-      <c r="B87" s="50"/>
-      <c r="C87" s="50" t="s">
-        <v>176</v>
-      </c>
-      <c r="D87" s="50"/>
+      <c r="A87" s="48" t="s">
+        <v>114</v>
+      </c>
+      <c r="B87" s="48"/>
+      <c r="C87" s="48" t="s">
+        <v>115</v>
+      </c>
+      <c r="D87" s="48"/>
     </row>
     <row r="88" spans="1:4">
-      <c r="A88" s="50" t="s">
-        <v>111</v>
-      </c>
-      <c r="B88" s="50"/>
-      <c r="C88" s="50" t="s">
-        <v>177</v>
-      </c>
-      <c r="D88" s="50"/>
+      <c r="A88" s="48" t="s">
+        <v>116</v>
+      </c>
+      <c r="B88" s="48"/>
+      <c r="C88" s="48" t="s">
+        <v>117</v>
+      </c>
+      <c r="D88" s="48"/>
     </row>
     <row r="89" spans="1:4">
-      <c r="A89" s="56" t="s">
-        <v>114</v>
-      </c>
-      <c r="B89" s="56"/>
-      <c r="C89" s="56" t="str">
+      <c r="A89" s="53" t="s">
+        <v>136</v>
+      </c>
+      <c r="B89" s="53"/>
+      <c r="C89" s="53" t="str">
         <f>CONCATENATE(C86," ",(LEFT(C87,1)),".",(LEFT(C88,1)),".")</f>
         <v>Дудник А.Р.</v>
       </c>
-      <c r="D89" s="56"/>
+      <c r="D89" s="53"/>
     </row>
     <row r="91" spans="1:4" ht="18.75">
-      <c r="A91" s="17" t="s">
-        <v>131</v>
+      <c r="A91" s="16" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="93" spans="1:4">
       <c r="A93" t="s">
-        <v>54</v>
+        <v>87</v>
       </c>
     </row>
     <row r="94" spans="1:4">
-      <c r="A94" s="50" t="s">
-        <v>132</v>
-      </c>
-      <c r="B94" s="50"/>
-      <c r="C94" s="55">
+      <c r="A94" s="48" t="s">
+        <v>138</v>
+      </c>
+      <c r="B94" s="48"/>
+      <c r="C94" s="49">
         <f>DATE(2019,6,15)</f>
         <v>43631</v>
       </c>
-      <c r="D94" s="50"/>
+      <c r="D94" s="48"/>
     </row>
     <row r="95" spans="1:4">
-      <c r="A95" s="50" t="s">
-        <v>133</v>
-      </c>
-      <c r="B95" s="50"/>
-      <c r="C95" s="50">
+      <c r="A95" s="48" t="s">
+        <v>139</v>
+      </c>
+      <c r="B95" s="48"/>
+      <c r="C95" s="48">
         <f>DAY(C94)</f>
         <v>15</v>
       </c>
-      <c r="D95" s="50"/>
+      <c r="D95" s="48"/>
     </row>
     <row r="96" spans="1:4">
-      <c r="A96" s="50" t="s">
-        <v>134</v>
-      </c>
-      <c r="B96" s="50"/>
-      <c r="C96" s="50">
+      <c r="A96" s="48" t="s">
+        <v>140</v>
+      </c>
+      <c r="B96" s="48"/>
+      <c r="C96" s="48">
         <f>MONTH(C94)</f>
         <v>6</v>
       </c>
-      <c r="D96" s="50"/>
+      <c r="D96" s="48"/>
     </row>
     <row r="97" spans="1:16">
-      <c r="A97" s="50" t="s">
-        <v>135</v>
-      </c>
-      <c r="B97" s="50"/>
-      <c r="C97" s="50">
+      <c r="A97" s="48" t="s">
+        <v>141</v>
+      </c>
+      <c r="B97" s="48"/>
+      <c r="C97" s="48">
         <f>YEAR(C94)</f>
         <v>2019</v>
       </c>
-      <c r="D97" s="50"/>
+      <c r="D97" s="48"/>
     </row>
     <row r="99" spans="1:16">
       <c r="A99" t="s">
-        <v>113</v>
+        <v>142</v>
       </c>
     </row>
     <row r="100" spans="1:16">
-      <c r="A100" s="50" t="s">
-        <v>132</v>
-      </c>
-      <c r="B100" s="50"/>
-      <c r="C100" s="55">
+      <c r="A100" s="48" t="s">
+        <v>138</v>
+      </c>
+      <c r="B100" s="48"/>
+      <c r="C100" s="49">
         <v>40920</v>
       </c>
-      <c r="D100" s="55"/>
+      <c r="D100" s="49"/>
     </row>
     <row r="101" spans="1:16" ht="26.25" customHeight="1">
-      <c r="A101" s="53" t="s">
-        <v>136</v>
-      </c>
-      <c r="B101" s="54"/>
-      <c r="C101" s="55">
+      <c r="A101" s="50" t="s">
+        <v>143</v>
+      </c>
+      <c r="B101" s="62"/>
+      <c r="C101" s="49">
         <f>SUM(C100,100)</f>
         <v>41020</v>
       </c>
-      <c r="D101" s="50"/>
-      <c r="F101" s="62" t="s">
-        <v>137</v>
-      </c>
-      <c r="G101" s="62"/>
-      <c r="H101" s="62"/>
-      <c r="I101" s="62"/>
-      <c r="J101" s="62"/>
-      <c r="K101" s="62"/>
-      <c r="L101" s="62"/>
-      <c r="M101" s="62"/>
-      <c r="N101" s="62"/>
-      <c r="O101" s="62"/>
-      <c r="P101" s="62"/>
+      <c r="D101" s="48"/>
+      <c r="F101" s="47" t="s">
+        <v>144</v>
+      </c>
+      <c r="G101" s="47"/>
+      <c r="H101" s="47"/>
+      <c r="I101" s="47"/>
+      <c r="J101" s="47"/>
+      <c r="K101" s="47"/>
+      <c r="L101" s="47"/>
+      <c r="M101" s="47"/>
+      <c r="N101" s="47"/>
+      <c r="O101" s="47"/>
+      <c r="P101" s="47"/>
     </row>
     <row r="103" spans="1:16">
       <c r="A103" t="s">
-        <v>138</v>
-      </c>
-      <c r="F103" s="24"/>
+        <v>145</v>
+      </c>
+      <c r="F103" s="22"/>
     </row>
     <row r="104" spans="1:16">
-      <c r="A104" s="53" t="s">
-        <v>139</v>
-      </c>
-      <c r="B104" s="54"/>
-      <c r="C104" s="55">
+      <c r="A104" s="50" t="s">
+        <v>146</v>
+      </c>
+      <c r="B104" s="62"/>
+      <c r="C104" s="49">
         <v>37479</v>
       </c>
-      <c r="D104" s="50"/>
+      <c r="D104" s="48"/>
       <c r="E104" t="s">
-        <v>179</v>
+        <v>147</v>
       </c>
     </row>
     <row r="105" spans="1:16" ht="27.75" customHeight="1">
-      <c r="A105" s="53" t="s">
-        <v>140</v>
-      </c>
-      <c r="B105" s="54"/>
-      <c r="C105" s="55">
+      <c r="A105" s="50" t="s">
+        <v>148</v>
+      </c>
+      <c r="B105" s="62"/>
+      <c r="C105" s="49">
         <f>SUM(E104,-C104)</f>
         <v>-37479</v>
       </c>
-      <c r="D105" s="55"/>
+      <c r="D105" s="49"/>
     </row>
     <row r="107" spans="1:16" ht="18.75">
-      <c r="A107" s="17" t="s">
-        <v>141</v>
+      <c r="A107" s="16" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="109" spans="1:16" ht="30" customHeight="1">
-      <c r="A109" s="51" t="s">
-        <v>142</v>
-      </c>
-      <c r="B109" s="51"/>
-      <c r="C109" s="51"/>
-      <c r="D109" s="51"/>
-      <c r="E109" s="51"/>
-      <c r="F109" s="51"/>
-      <c r="G109" s="51"/>
-      <c r="H109" s="51"/>
-      <c r="I109" s="51"/>
-      <c r="J109" s="51"/>
-      <c r="K109" s="51"/>
-      <c r="L109" s="51"/>
-      <c r="M109" s="51"/>
-      <c r="N109" s="51"/>
+      <c r="A109" s="59" t="s">
+        <v>150</v>
+      </c>
+      <c r="B109" s="59"/>
+      <c r="C109" s="59"/>
+      <c r="D109" s="59"/>
+      <c r="E109" s="59"/>
+      <c r="F109" s="59"/>
+      <c r="G109" s="59"/>
+      <c r="H109" s="59"/>
+      <c r="I109" s="59"/>
+      <c r="J109" s="59"/>
+      <c r="K109" s="59"/>
+      <c r="L109" s="59"/>
+      <c r="M109" s="59"/>
+      <c r="N109" s="59"/>
     </row>
     <row r="111" spans="1:16">
-      <c r="A111" s="50" t="s">
-        <v>143</v>
-      </c>
-      <c r="B111" s="50"/>
-      <c r="C111" s="50"/>
-      <c r="D111" s="9">
+      <c r="A111" s="48" t="s">
+        <v>151</v>
+      </c>
+      <c r="B111" s="48"/>
+      <c r="C111" s="48"/>
+      <c r="D111" s="8">
         <v>30</v>
       </c>
     </row>
     <row r="112" spans="1:16">
-      <c r="A112" s="50" t="s">
-        <v>144</v>
-      </c>
-      <c r="B112" s="50"/>
-      <c r="C112" s="50"/>
-      <c r="D112" s="9">
+      <c r="A112" s="48" t="s">
+        <v>152</v>
+      </c>
+      <c r="B112" s="48"/>
+      <c r="C112" s="48"/>
+      <c r="D112" s="8">
         <v>20</v>
       </c>
     </row>
     <row r="113" spans="1:14">
-      <c r="A113" s="50" t="s">
-        <v>145</v>
-      </c>
-      <c r="B113" s="50"/>
-      <c r="C113" s="50"/>
-      <c r="D113" s="9">
+      <c r="A113" s="48" t="s">
+        <v>153</v>
+      </c>
+      <c r="B113" s="48"/>
+      <c r="C113" s="48"/>
+      <c r="D113" s="8">
         <v>15</v>
       </c>
     </row>
     <row r="114" spans="1:14">
-      <c r="A114" s="50" t="s">
-        <v>146</v>
-      </c>
-      <c r="B114" s="50"/>
-      <c r="C114" s="50"/>
-      <c r="D114" s="9">
+      <c r="A114" s="48" t="s">
+        <v>154</v>
+      </c>
+      <c r="B114" s="48"/>
+      <c r="C114" s="48"/>
+      <c r="D114" s="8">
         <v>21</v>
       </c>
     </row>
     <row r="115" spans="1:14">
-      <c r="A115" s="50" t="s">
-        <v>147</v>
-      </c>
-      <c r="B115" s="50"/>
-      <c r="C115" s="50"/>
-      <c r="D115" s="9">
+      <c r="A115" s="48" t="s">
+        <v>155</v>
+      </c>
+      <c r="B115" s="48"/>
+      <c r="C115" s="48"/>
+      <c r="D115" s="8">
         <v>8</v>
       </c>
     </row>
     <row r="116" spans="1:14">
-      <c r="A116" s="50" t="s">
-        <v>148</v>
-      </c>
-      <c r="B116" s="50"/>
-      <c r="C116" s="50"/>
-      <c r="D116" s="9">
+      <c r="A116" s="48" t="s">
+        <v>156</v>
+      </c>
+      <c r="B116" s="48"/>
+      <c r="C116" s="48"/>
+      <c r="D116" s="8">
         <f>SUM(D111:D113)</f>
         <v>65</v>
       </c>
     </row>
     <row r="117" spans="1:14">
-      <c r="A117" s="50" t="s">
-        <v>149</v>
-      </c>
-      <c r="B117" s="50"/>
-      <c r="C117" s="50"/>
-      <c r="D117" s="9">
+      <c r="A117" s="48" t="s">
+        <v>157</v>
+      </c>
+      <c r="B117" s="48"/>
+      <c r="C117" s="48"/>
+      <c r="D117" s="8">
         <f>SUM(D111:D115)</f>
         <v>94</v>
       </c>
     </row>
     <row r="119" spans="1:14">
-      <c r="A119" s="51" t="s">
-        <v>150</v>
-      </c>
-      <c r="B119" s="51"/>
-      <c r="C119" s="51"/>
-      <c r="D119" s="51"/>
-      <c r="E119" s="51"/>
-      <c r="F119" s="51"/>
-      <c r="G119" s="51"/>
-      <c r="H119" s="51"/>
-      <c r="I119" s="51"/>
-      <c r="J119" s="51"/>
-      <c r="K119" s="51"/>
-      <c r="L119" s="51"/>
-      <c r="M119" s="51"/>
-      <c r="N119" s="51"/>
+      <c r="A119" s="59" t="s">
+        <v>158</v>
+      </c>
+      <c r="B119" s="59"/>
+      <c r="C119" s="59"/>
+      <c r="D119" s="59"/>
+      <c r="E119" s="59"/>
+      <c r="F119" s="59"/>
+      <c r="G119" s="59"/>
+      <c r="H119" s="59"/>
+      <c r="I119" s="59"/>
+      <c r="J119" s="59"/>
+      <c r="K119" s="59"/>
+      <c r="L119" s="59"/>
+      <c r="M119" s="59"/>
+      <c r="N119" s="59"/>
     </row>
     <row r="121" spans="1:14">
-      <c r="A121" s="52" t="s">
-        <v>151</v>
-      </c>
-      <c r="B121" s="52"/>
-      <c r="C121" s="52"/>
-      <c r="D121" s="25" t="s">
-        <v>152</v>
+      <c r="A121" s="60" t="s">
+        <v>159</v>
+      </c>
+      <c r="B121" s="60"/>
+      <c r="C121" s="60"/>
+      <c r="D121" s="23" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="122" spans="1:14">
-      <c r="A122" s="50" t="s">
-        <v>153</v>
-      </c>
-      <c r="B122" s="50"/>
-      <c r="C122" s="50"/>
-      <c r="D122" s="9">
+      <c r="A122" s="48" t="s">
+        <v>161</v>
+      </c>
+      <c r="B122" s="48"/>
+      <c r="C122" s="48"/>
+      <c r="D122" s="8">
         <v>19000</v>
       </c>
     </row>
     <row r="123" spans="1:14">
-      <c r="A123" s="50" t="s">
-        <v>154</v>
-      </c>
-      <c r="B123" s="50"/>
-      <c r="C123" s="50"/>
-      <c r="D123" s="9">
+      <c r="A123" s="48" t="s">
+        <v>162</v>
+      </c>
+      <c r="B123" s="48"/>
+      <c r="C123" s="48"/>
+      <c r="D123" s="8">
         <v>19000</v>
       </c>
     </row>
     <row r="124" spans="1:14">
-      <c r="A124" s="50" t="s">
-        <v>155</v>
-      </c>
-      <c r="B124" s="50"/>
-      <c r="C124" s="50"/>
-      <c r="D124" s="9">
+      <c r="A124" s="48" t="s">
+        <v>163</v>
+      </c>
+      <c r="B124" s="48"/>
+      <c r="C124" s="48"/>
+      <c r="D124" s="8">
         <v>19000</v>
       </c>
     </row>
     <row r="125" spans="1:14">
-      <c r="A125" s="50" t="s">
-        <v>156</v>
-      </c>
-      <c r="B125" s="50"/>
-      <c r="C125" s="50"/>
-      <c r="D125" s="9">
+      <c r="A125" s="48" t="s">
+        <v>164</v>
+      </c>
+      <c r="B125" s="48"/>
+      <c r="C125" s="48"/>
+      <c r="D125" s="8">
         <v>19000</v>
       </c>
     </row>
     <row r="126" spans="1:14">
-      <c r="A126" s="50" t="s">
-        <v>157</v>
-      </c>
-      <c r="B126" s="50"/>
-      <c r="C126" s="50"/>
-      <c r="D126" s="9">
+      <c r="A126" s="48" t="s">
+        <v>165</v>
+      </c>
+      <c r="B126" s="48"/>
+      <c r="C126" s="48"/>
+      <c r="D126" s="8">
         <v>19000</v>
       </c>
     </row>
     <row r="127" spans="1:14">
-      <c r="A127" s="50" t="s">
-        <v>158</v>
-      </c>
-      <c r="B127" s="50"/>
-      <c r="C127" s="50"/>
-      <c r="D127" s="9">
+      <c r="A127" s="48" t="s">
+        <v>166</v>
+      </c>
+      <c r="B127" s="48"/>
+      <c r="C127" s="48"/>
+      <c r="D127" s="8">
         <v>19000</v>
       </c>
     </row>
     <row r="128" spans="1:14">
-      <c r="A128" s="50" t="s">
-        <v>159</v>
-      </c>
-      <c r="B128" s="50"/>
-      <c r="C128" s="50"/>
-      <c r="D128" s="9">
+      <c r="A128" s="48" t="s">
+        <v>167</v>
+      </c>
+      <c r="B128" s="48"/>
+      <c r="C128" s="48"/>
+      <c r="D128" s="8">
         <v>19000</v>
       </c>
     </row>
     <row r="129" spans="1:4">
-      <c r="A129" s="50" t="s">
-        <v>160</v>
-      </c>
-      <c r="B129" s="50"/>
-      <c r="C129" s="50"/>
-      <c r="D129" s="9">
+      <c r="A129" s="48" t="s">
+        <v>168</v>
+      </c>
+      <c r="B129" s="48"/>
+      <c r="C129" s="48"/>
+      <c r="D129" s="8">
         <v>19000</v>
       </c>
     </row>
     <row r="130" spans="1:4">
-      <c r="A130" s="50" t="s">
-        <v>161</v>
-      </c>
-      <c r="B130" s="50"/>
-      <c r="C130" s="50"/>
-      <c r="D130" s="9">
+      <c r="A130" s="48" t="s">
+        <v>169</v>
+      </c>
+      <c r="B130" s="48"/>
+      <c r="C130" s="48"/>
+      <c r="D130" s="8">
         <v>19000</v>
       </c>
     </row>
     <row r="131" spans="1:4">
-      <c r="A131" s="50" t="s">
-        <v>162</v>
-      </c>
-      <c r="B131" s="50"/>
-      <c r="C131" s="50"/>
-      <c r="D131" s="9">
+      <c r="A131" s="48" t="s">
+        <v>170</v>
+      </c>
+      <c r="B131" s="48"/>
+      <c r="C131" s="48"/>
+      <c r="D131" s="8">
         <v>19000</v>
       </c>
     </row>
     <row r="132" spans="1:4">
-      <c r="A132" s="50" t="s">
-        <v>163</v>
-      </c>
-      <c r="B132" s="50"/>
-      <c r="C132" s="50"/>
-      <c r="D132" s="9">
+      <c r="A132" s="48" t="s">
+        <v>171</v>
+      </c>
+      <c r="B132" s="48"/>
+      <c r="C132" s="48"/>
+      <c r="D132" s="8">
         <v>19000</v>
       </c>
     </row>
     <row r="133" spans="1:4">
-      <c r="A133" s="50" t="s">
-        <v>164</v>
-      </c>
-      <c r="B133" s="50"/>
-      <c r="C133" s="50"/>
-      <c r="D133" s="9">
+      <c r="A133" s="48" t="s">
+        <v>172</v>
+      </c>
+      <c r="B133" s="48"/>
+      <c r="C133" s="48"/>
+      <c r="D133" s="8">
         <v>19000</v>
       </c>
     </row>
     <row r="134" spans="1:4">
-      <c r="A134" s="50"/>
-      <c r="B134" s="50"/>
-      <c r="C134" s="50"/>
-      <c r="D134" s="9"/>
+      <c r="A134" s="48"/>
+      <c r="B134" s="48"/>
+      <c r="C134" s="48"/>
+      <c r="D134" s="8"/>
     </row>
     <row r="135" spans="1:4">
-      <c r="A135" s="50" t="s">
-        <v>165</v>
-      </c>
-      <c r="B135" s="50"/>
-      <c r="C135" s="50"/>
-      <c r="D135" s="9">
+      <c r="A135" s="48" t="s">
+        <v>173</v>
+      </c>
+      <c r="B135" s="48"/>
+      <c r="C135" s="48"/>
+      <c r="D135" s="8">
         <f>SUM(D122:D124)</f>
         <v>57000</v>
       </c>
     </row>
     <row r="136" spans="1:4">
-      <c r="A136" s="50" t="s">
-        <v>166</v>
-      </c>
-      <c r="B136" s="50"/>
-      <c r="C136" s="50"/>
-      <c r="D136" s="9">
+      <c r="A136" s="48" t="s">
+        <v>174</v>
+      </c>
+      <c r="B136" s="48"/>
+      <c r="C136" s="48"/>
+      <c r="D136" s="8">
         <f>SUM(D125:D127)</f>
         <v>57000</v>
       </c>
     </row>
     <row r="137" spans="1:4">
-      <c r="A137" s="47" t="s">
-        <v>167</v>
-      </c>
-      <c r="B137" s="48"/>
-      <c r="C137" s="49"/>
-      <c r="D137" s="9">
+      <c r="A137" s="51" t="s">
+        <v>175</v>
+      </c>
+      <c r="B137" s="61"/>
+      <c r="C137" s="52"/>
+      <c r="D137" s="8">
         <f>SUM(D135:D136)</f>
         <v>114000</v>
       </c>
     </row>
     <row r="138" spans="1:4">
-      <c r="A138" s="47" t="s">
-        <v>168</v>
-      </c>
-      <c r="B138" s="48"/>
-      <c r="C138" s="49"/>
-      <c r="D138" s="9">
+      <c r="A138" s="51" t="s">
+        <v>176</v>
+      </c>
+      <c r="B138" s="61"/>
+      <c r="C138" s="52"/>
+      <c r="D138" s="8">
         <f>SUM(D128:D130)</f>
         <v>57000</v>
       </c>
     </row>
     <row r="139" spans="1:4">
-      <c r="A139" s="47" t="s">
-        <v>169</v>
-      </c>
-      <c r="B139" s="48"/>
-      <c r="C139" s="49"/>
-      <c r="D139" s="9">
+      <c r="A139" s="51" t="s">
+        <v>177</v>
+      </c>
+      <c r="B139" s="61"/>
+      <c r="C139" s="52"/>
+      <c r="D139" s="8">
         <f>SUM(D131:D133)</f>
         <v>57000</v>
       </c>
     </row>
     <row r="140" spans="1:4">
-      <c r="A140" s="47" t="s">
-        <v>170</v>
-      </c>
-      <c r="B140" s="48"/>
-      <c r="C140" s="49"/>
-      <c r="D140" s="9">
+      <c r="A140" s="51" t="s">
+        <v>178</v>
+      </c>
+      <c r="B140" s="61"/>
+      <c r="C140" s="52"/>
+      <c r="D140" s="8">
         <f>SUM(D138:D139)</f>
         <v>114000</v>
       </c>
     </row>
     <row r="141" spans="1:4">
-      <c r="A141" s="47" t="s">
-        <v>171</v>
-      </c>
-      <c r="B141" s="48"/>
-      <c r="C141" s="49"/>
-      <c r="D141" s="9">
+      <c r="A141" s="51" t="s">
+        <v>179</v>
+      </c>
+      <c r="B141" s="61"/>
+      <c r="C141" s="52"/>
+      <c r="D141" s="8">
         <f>SUM(D122:D133)</f>
         <v>228000</v>
       </c>
@@ -3777,101 +3893,6 @@
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <mergeCells count="107">
-    <mergeCell ref="F101:P101"/>
-    <mergeCell ref="A100:B100"/>
-    <mergeCell ref="C100:D100"/>
-    <mergeCell ref="A101:B101"/>
-    <mergeCell ref="C101:D101"/>
-    <mergeCell ref="A95:B95"/>
-    <mergeCell ref="C95:D95"/>
-    <mergeCell ref="A96:B96"/>
-    <mergeCell ref="C96:D96"/>
-    <mergeCell ref="A97:B97"/>
-    <mergeCell ref="C97:D97"/>
-    <mergeCell ref="A80:B80"/>
-    <mergeCell ref="C80:D80"/>
-    <mergeCell ref="A81:B81"/>
-    <mergeCell ref="C81:D81"/>
-    <mergeCell ref="A94:B94"/>
-    <mergeCell ref="C94:D94"/>
-    <mergeCell ref="A83:B83"/>
-    <mergeCell ref="C83:D83"/>
-    <mergeCell ref="A88:B88"/>
-    <mergeCell ref="C72:D72"/>
-    <mergeCell ref="A73:B73"/>
-    <mergeCell ref="C73:D73"/>
-    <mergeCell ref="A76:B76"/>
-    <mergeCell ref="A77:B77"/>
-    <mergeCell ref="C76:D76"/>
-    <mergeCell ref="C77:D77"/>
-    <mergeCell ref="C88:D88"/>
-    <mergeCell ref="A89:B89"/>
-    <mergeCell ref="C89:D89"/>
-    <mergeCell ref="A68:B68"/>
-    <mergeCell ref="C68:D68"/>
-    <mergeCell ref="A69:B69"/>
-    <mergeCell ref="C69:D69"/>
-    <mergeCell ref="A82:B82"/>
-    <mergeCell ref="C82:D82"/>
-    <mergeCell ref="A72:B72"/>
-    <mergeCell ref="A56:C56"/>
-    <mergeCell ref="A57:C57"/>
-    <mergeCell ref="A46:C46"/>
-    <mergeCell ref="A52:C52"/>
-    <mergeCell ref="A53:C53"/>
-    <mergeCell ref="A54:C54"/>
-    <mergeCell ref="F53:K53"/>
-    <mergeCell ref="F54:K54"/>
-    <mergeCell ref="A36:C36"/>
-    <mergeCell ref="A40:C40"/>
-    <mergeCell ref="A41:C41"/>
-    <mergeCell ref="A45:C45"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="A30:C30"/>
-    <mergeCell ref="A31:C31"/>
-    <mergeCell ref="A35:C35"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="A25:C25"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="F55:K55"/>
-    <mergeCell ref="F56:K56"/>
-    <mergeCell ref="F57:K57"/>
-    <mergeCell ref="A62:B62"/>
-    <mergeCell ref="A63:B63"/>
-    <mergeCell ref="A64:B64"/>
-    <mergeCell ref="C62:D62"/>
-    <mergeCell ref="C63:D63"/>
-    <mergeCell ref="C64:D64"/>
-    <mergeCell ref="A55:C55"/>
-    <mergeCell ref="A105:B105"/>
-    <mergeCell ref="A104:B104"/>
-    <mergeCell ref="C104:D104"/>
-    <mergeCell ref="C105:D105"/>
-    <mergeCell ref="A65:B65"/>
-    <mergeCell ref="C65:D65"/>
-    <mergeCell ref="A86:B86"/>
-    <mergeCell ref="C86:D86"/>
-    <mergeCell ref="A87:B87"/>
-    <mergeCell ref="C87:D87"/>
-    <mergeCell ref="A114:C114"/>
-    <mergeCell ref="A115:C115"/>
-    <mergeCell ref="A116:C116"/>
-    <mergeCell ref="A117:C117"/>
-    <mergeCell ref="A109:N109"/>
-    <mergeCell ref="A111:C111"/>
-    <mergeCell ref="A112:C112"/>
-    <mergeCell ref="A113:C113"/>
-    <mergeCell ref="A123:C123"/>
-    <mergeCell ref="A124:C124"/>
-    <mergeCell ref="A125:C125"/>
-    <mergeCell ref="A126:C126"/>
-    <mergeCell ref="A119:N119"/>
-    <mergeCell ref="A121:C121"/>
-    <mergeCell ref="A122:C122"/>
-    <mergeCell ref="A131:C131"/>
-    <mergeCell ref="A132:C132"/>
-    <mergeCell ref="A133:C133"/>
     <mergeCell ref="A134:C134"/>
     <mergeCell ref="A127:C127"/>
     <mergeCell ref="A128:C128"/>
@@ -3884,6 +3905,101 @@
     <mergeCell ref="A136:C136"/>
     <mergeCell ref="A137:C137"/>
     <mergeCell ref="A138:C138"/>
+    <mergeCell ref="A124:C124"/>
+    <mergeCell ref="A125:C125"/>
+    <mergeCell ref="A126:C126"/>
+    <mergeCell ref="A119:N119"/>
+    <mergeCell ref="A121:C121"/>
+    <mergeCell ref="A122:C122"/>
+    <mergeCell ref="A131:C131"/>
+    <mergeCell ref="A132:C132"/>
+    <mergeCell ref="A133:C133"/>
+    <mergeCell ref="A114:C114"/>
+    <mergeCell ref="A115:C115"/>
+    <mergeCell ref="A116:C116"/>
+    <mergeCell ref="A117:C117"/>
+    <mergeCell ref="A109:N109"/>
+    <mergeCell ref="A111:C111"/>
+    <mergeCell ref="A112:C112"/>
+    <mergeCell ref="A113:C113"/>
+    <mergeCell ref="A123:C123"/>
+    <mergeCell ref="A105:B105"/>
+    <mergeCell ref="A104:B104"/>
+    <mergeCell ref="C104:D104"/>
+    <mergeCell ref="C105:D105"/>
+    <mergeCell ref="A65:B65"/>
+    <mergeCell ref="C65:D65"/>
+    <mergeCell ref="A86:B86"/>
+    <mergeCell ref="C86:D86"/>
+    <mergeCell ref="A87:B87"/>
+    <mergeCell ref="C87:D87"/>
+    <mergeCell ref="F56:K56"/>
+    <mergeCell ref="F57:K57"/>
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="A63:B63"/>
+    <mergeCell ref="A64:B64"/>
+    <mergeCell ref="C62:D62"/>
+    <mergeCell ref="C63:D63"/>
+    <mergeCell ref="C64:D64"/>
+    <mergeCell ref="A55:C55"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="A30:C30"/>
+    <mergeCell ref="A31:C31"/>
+    <mergeCell ref="A35:C35"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="F55:K55"/>
+    <mergeCell ref="A46:C46"/>
+    <mergeCell ref="A52:C52"/>
+    <mergeCell ref="A53:C53"/>
+    <mergeCell ref="A54:C54"/>
+    <mergeCell ref="F53:K53"/>
+    <mergeCell ref="F54:K54"/>
+    <mergeCell ref="A36:C36"/>
+    <mergeCell ref="A40:C40"/>
+    <mergeCell ref="A41:C41"/>
+    <mergeCell ref="A45:C45"/>
+    <mergeCell ref="A68:B68"/>
+    <mergeCell ref="C68:D68"/>
+    <mergeCell ref="A69:B69"/>
+    <mergeCell ref="C69:D69"/>
+    <mergeCell ref="A82:B82"/>
+    <mergeCell ref="C82:D82"/>
+    <mergeCell ref="A72:B72"/>
+    <mergeCell ref="A56:C56"/>
+    <mergeCell ref="A57:C57"/>
+    <mergeCell ref="C72:D72"/>
+    <mergeCell ref="A73:B73"/>
+    <mergeCell ref="C73:D73"/>
+    <mergeCell ref="A76:B76"/>
+    <mergeCell ref="A77:B77"/>
+    <mergeCell ref="C76:D76"/>
+    <mergeCell ref="C77:D77"/>
+    <mergeCell ref="C88:D88"/>
+    <mergeCell ref="A89:B89"/>
+    <mergeCell ref="C89:D89"/>
+    <mergeCell ref="A80:B80"/>
+    <mergeCell ref="C80:D80"/>
+    <mergeCell ref="A81:B81"/>
+    <mergeCell ref="C81:D81"/>
+    <mergeCell ref="A94:B94"/>
+    <mergeCell ref="C94:D94"/>
+    <mergeCell ref="A83:B83"/>
+    <mergeCell ref="C83:D83"/>
+    <mergeCell ref="A88:B88"/>
+    <mergeCell ref="F101:P101"/>
+    <mergeCell ref="A100:B100"/>
+    <mergeCell ref="C100:D100"/>
+    <mergeCell ref="A101:B101"/>
+    <mergeCell ref="C101:D101"/>
+    <mergeCell ref="A95:B95"/>
+    <mergeCell ref="C95:D95"/>
+    <mergeCell ref="A96:B96"/>
+    <mergeCell ref="C96:D96"/>
+    <mergeCell ref="A97:B97"/>
+    <mergeCell ref="C97:D97"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.74791666666666667" right="0.74791666666666667" top="0.98402777777777772" bottom="0.98402777777777772" header="0.51180555555555551" footer="0.51180555555555551"/>
